--- a/results/selected_stimuli.xlsx
+++ b/results/selected_stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\amandalin047\july_ratings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F4B863-85EB-4EAD-8B0D-E9B610475583}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8D674-597B-48B1-9E82-69DE508117C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="578">
   <si>
     <t>Rated Condition</t>
   </si>
@@ -1254,9 +1254,6 @@
   </si>
   <si>
     <t>他利用身體阻擋對手進攻上籃，導致被判犯規。</t>
-  </si>
-  <si>
-    <t>受到觀眾要求，導演決定提早播出電影幕後配樂。</t>
   </si>
   <si>
     <t>受到觀眾要求，導演決定提早播出電影幕後製作。</t>
@@ -2191,47 +2188,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -2242,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I558"/>
+  <dimension ref="A1:I557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="P179" sqref="P179"/>
+    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
+      <selection activeCell="A400" sqref="A400:XFD400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13835,10 +13832,10 @@
         <v>0</v>
       </c>
       <c r="E400">
-        <v>4</v>
+        <v>4.117647058823529</v>
       </c>
       <c r="F400">
-        <v>5.2941176470588234</v>
+        <v>5.8235294117647056</v>
       </c>
       <c r="G400">
         <v>5.7857142857142856</v>
@@ -13861,13 +13858,13 @@
         <v>412</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="E401">
-        <v>4.117647058823529</v>
+        <v>6.2352941176470589</v>
       </c>
       <c r="F401">
-        <v>5.8235294117647056</v>
+        <v>6.6470588235294121</v>
       </c>
       <c r="G401">
         <v>5.7857142857142856</v>
@@ -13884,28 +13881,28 @@
         <v>11</v>
       </c>
       <c r="B402">
-        <v>1353</v>
+        <v>1357</v>
       </c>
       <c r="C402" t="s">
         <v>413</v>
       </c>
       <c r="D402">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E402">
-        <v>6.2352941176470589</v>
+        <v>3.2941176470588229</v>
       </c>
       <c r="F402">
-        <v>6.6470588235294121</v>
+        <v>5.3529411764705879</v>
       </c>
       <c r="G402">
-        <v>5.7857142857142856</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="H402">
-        <v>0.78571428571428559</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I402">
-        <v>2.4285714285714279</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.45">
@@ -13919,13 +13916,13 @@
         <v>414</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E403">
-        <v>3.2941176470588229</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="F403">
-        <v>5.3529411764705879</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="G403">
         <v>5.0714285714285712</v>
@@ -13942,28 +13939,28 @@
         <v>11</v>
       </c>
       <c r="B404">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="C404" t="s">
         <v>415</v>
       </c>
       <c r="D404">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E404">
-        <v>6.4705882352941178</v>
+        <v>2.5882352941176472</v>
       </c>
       <c r="F404">
-        <v>6.4705882352941178</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="G404">
-        <v>5.0714285714285712</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="H404">
-        <v>7.1428571428571175E-2</v>
+        <v>0.42857142857142883</v>
       </c>
       <c r="I404">
-        <v>1.571428571428571</v>
+        <v>2.214285714285714</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.45">
@@ -13977,13 +13974,13 @@
         <v>416</v>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E405">
-        <v>2.5882352941176472</v>
+        <v>6.8235294117647056</v>
       </c>
       <c r="F405">
-        <v>4.7058823529411766</v>
+        <v>6.882352941176471</v>
       </c>
       <c r="G405">
         <v>4.5714285714285712</v>
@@ -14000,28 +13997,28 @@
         <v>11</v>
       </c>
       <c r="B406">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="C406" t="s">
         <v>417</v>
       </c>
       <c r="D406">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E406">
-        <v>6.8235294117647056</v>
+        <v>3.8666666666666671</v>
       </c>
       <c r="F406">
-        <v>6.882352941176471</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="G406">
-        <v>4.5714285714285712</v>
+        <v>4.8125</v>
       </c>
       <c r="H406">
-        <v>0.42857142857142883</v>
+        <v>0.1875</v>
       </c>
       <c r="I406">
-        <v>2.214285714285714</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.45">
@@ -14035,13 +14032,13 @@
         <v>418</v>
       </c>
       <c r="D407">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E407">
-        <v>3.8666666666666671</v>
+        <v>6.1428571428571432</v>
       </c>
       <c r="F407">
-        <v>5.333333333333333</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="G407">
         <v>4.8125</v>
@@ -14058,28 +14055,28 @@
         <v>11</v>
       </c>
       <c r="B408">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="C408" t="s">
         <v>419</v>
       </c>
       <c r="D408">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E408">
-        <v>6.1428571428571432</v>
+        <v>2.7647058823529411</v>
       </c>
       <c r="F408">
-        <v>6.4285714285714288</v>
+        <v>4.4705882352941178</v>
       </c>
       <c r="G408">
-        <v>4.8125</v>
+        <v>4.3571428571428568</v>
       </c>
       <c r="H408">
-        <v>0.1875</v>
+        <v>0.64285714285714324</v>
       </c>
       <c r="I408">
-        <v>3.25</v>
+        <v>3.214285714285714</v>
       </c>
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.45">
@@ -14093,13 +14090,13 @@
         <v>420</v>
       </c>
       <c r="D409">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E409">
-        <v>2.7647058823529411</v>
+        <v>6.7058823529411766</v>
       </c>
       <c r="F409">
-        <v>4.4705882352941178</v>
+        <v>6.7058823529411766</v>
       </c>
       <c r="G409">
         <v>4.3571428571428568</v>
@@ -14116,28 +14113,28 @@
         <v>11</v>
       </c>
       <c r="B410">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C410" t="s">
         <v>421</v>
       </c>
       <c r="D410">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E410">
-        <v>6.7058823529411766</v>
+        <v>3.5</v>
       </c>
       <c r="F410">
-        <v>6.7058823529411766</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="G410">
-        <v>4.3571428571428568</v>
+        <v>5.3125</v>
       </c>
       <c r="H410">
-        <v>0.64285714285714324</v>
+        <v>0.3125</v>
       </c>
       <c r="I410">
-        <v>3.214285714285714</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.45">
@@ -14151,13 +14148,13 @@
         <v>422</v>
       </c>
       <c r="D411">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E411">
-        <v>3.5</v>
+        <v>6.3529411764705879</v>
       </c>
       <c r="F411">
-        <v>4.9285714285714288</v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="G411">
         <v>5.3125</v>
@@ -14174,28 +14171,28 @@
         <v>11</v>
       </c>
       <c r="B412">
-        <v>1377</v>
+        <v>1381</v>
       </c>
       <c r="C412" t="s">
         <v>423</v>
       </c>
       <c r="D412">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E412">
-        <v>6.3529411764705879</v>
+        <v>3.4</v>
       </c>
       <c r="F412">
-        <v>6.4117647058823533</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="G412">
-        <v>5.3125</v>
+        <v>4.6875</v>
       </c>
       <c r="H412">
         <v>0.3125</v>
       </c>
       <c r="I412">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.45">
@@ -14209,13 +14206,13 @@
         <v>424</v>
       </c>
       <c r="D413">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E413">
-        <v>3.4</v>
+        <v>6.2</v>
       </c>
       <c r="F413">
-        <v>4.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="G413">
         <v>4.6875</v>
@@ -14232,28 +14229,28 @@
         <v>11</v>
       </c>
       <c r="B414">
-        <v>1381</v>
+        <v>1393</v>
       </c>
       <c r="C414" t="s">
         <v>425</v>
       </c>
       <c r="D414">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="E414">
-        <v>6.2</v>
+        <v>4.3571428571428568</v>
       </c>
       <c r="F414">
-        <v>6.4</v>
+        <v>5.6428571428571432</v>
       </c>
       <c r="G414">
-        <v>4.6875</v>
+        <v>5.25</v>
       </c>
       <c r="H414">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="I414">
-        <v>2.625</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.45">
@@ -14267,13 +14264,13 @@
         <v>426</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E415">
-        <v>4.3571428571428568</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="F415">
-        <v>5.6428571428571432</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="G415">
         <v>5.25</v>
@@ -14290,28 +14287,28 @@
         <v>11</v>
       </c>
       <c r="B416">
-        <v>1393</v>
+        <v>1397</v>
       </c>
       <c r="C416" t="s">
         <v>427</v>
       </c>
       <c r="D416">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E416">
-        <v>5.7058823529411766</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="F416">
-        <v>6.5882352941176467</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="G416">
-        <v>5.25</v>
+        <v>4.9375</v>
       </c>
       <c r="H416">
-        <v>0.25</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I416">
-        <v>3</v>
+        <v>2.875</v>
       </c>
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.45">
@@ -14325,13 +14322,13 @@
         <v>428</v>
       </c>
       <c r="D417">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E417">
-        <v>4.2666666666666666</v>
+        <v>6.4</v>
       </c>
       <c r="F417">
-        <v>5.1333333333333337</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="G417">
         <v>4.9375</v>
@@ -14348,28 +14345,28 @@
         <v>11</v>
       </c>
       <c r="B418">
-        <v>1397</v>
+        <v>1401</v>
       </c>
       <c r="C418" t="s">
         <v>429</v>
       </c>
       <c r="D418">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E418">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="F418">
-        <v>6.4666666666666668</v>
+        <v>5.5</v>
       </c>
       <c r="G418">
-        <v>4.9375</v>
+        <v>5.375</v>
       </c>
       <c r="H418">
-        <v>6.25E-2</v>
+        <v>0.375</v>
       </c>
       <c r="I418">
-        <v>2.875</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.45">
@@ -14383,13 +14380,13 @@
         <v>430</v>
       </c>
       <c r="D419">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="E419">
-        <v>3.5</v>
+        <v>6.3529411764705879</v>
       </c>
       <c r="F419">
-        <v>5.5</v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="G419">
         <v>5.375</v>
@@ -14406,28 +14403,28 @@
         <v>11</v>
       </c>
       <c r="B420">
-        <v>1401</v>
+        <v>1405</v>
       </c>
       <c r="C420" t="s">
         <v>431</v>
       </c>
       <c r="D420">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E420">
-        <v>6.3529411764705879</v>
+        <v>4.9411764705882364</v>
       </c>
       <c r="F420">
-        <v>6.4117647058823533</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="G420">
-        <v>5.375</v>
+        <v>5</v>
       </c>
       <c r="H420">
-        <v>0.375</v>
+        <v>0</v>
       </c>
       <c r="I420">
-        <v>3.5</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.45">
@@ -14441,13 +14438,13 @@
         <v>432</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E421">
-        <v>4.9411764705882364</v>
+        <v>6.7058823529411766</v>
       </c>
       <c r="F421">
-        <v>6.4705882352941178</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="G421">
         <v>5</v>
@@ -14461,31 +14458,31 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A422" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B422">
-        <v>1405</v>
+        <v>2</v>
       </c>
       <c r="C422" t="s">
         <v>433</v>
       </c>
       <c r="D422">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E422">
-        <v>6.7058823529411766</v>
+        <v>3.3529411764705879</v>
       </c>
       <c r="F422">
-        <v>6.7647058823529411</v>
+        <v>4.7058823529411766</v>
       </c>
       <c r="G422">
-        <v>5</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>0.71428571428571441</v>
       </c>
       <c r="I422">
-        <v>1.928571428571429</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.45">
@@ -14499,13 +14496,13 @@
         <v>434</v>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E423">
-        <v>3.3529411764705879</v>
+        <v>4.6470588235294121</v>
       </c>
       <c r="F423">
-        <v>4.7058823529411766</v>
+        <v>5.1764705882352944</v>
       </c>
       <c r="G423">
         <v>4.2857142857142856</v>
@@ -14522,28 +14519,28 @@
         <v>12</v>
       </c>
       <c r="B424">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C424" t="s">
         <v>435</v>
       </c>
       <c r="D424">
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="E424">
-        <v>4.6470588235294121</v>
+        <v>2.1333333333333329</v>
       </c>
       <c r="F424">
-        <v>5.1764705882352944</v>
+        <v>4.2</v>
       </c>
       <c r="G424">
-        <v>4.2857142857142856</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="H424">
-        <v>0.71428571428571441</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I424">
-        <v>3.1428571428571428</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.45">
@@ -14557,13 +14554,13 @@
         <v>436</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E425">
-        <v>2.1333333333333329</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="F425">
-        <v>4.2</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="G425">
         <v>5.0714285714285712</v>
@@ -14580,28 +14577,28 @@
         <v>12</v>
       </c>
       <c r="B426">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C426" t="s">
         <v>437</v>
       </c>
       <c r="D426">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E426">
-        <v>6.0666666666666664</v>
+        <v>5</v>
       </c>
       <c r="F426">
-        <v>6.0666666666666664</v>
+        <v>5.5882352941176467</v>
       </c>
       <c r="G426">
-        <v>5.0714285714285712</v>
+        <v>5.7857142857142856</v>
       </c>
       <c r="H426">
-        <v>7.1428571428571175E-2</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="I426">
-        <v>1.5</v>
+        <v>2.3571428571428572</v>
       </c>
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.45">
@@ -14615,13 +14612,13 @@
         <v>438</v>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E427">
-        <v>5</v>
+        <v>5.0588235294117636</v>
       </c>
       <c r="F427">
-        <v>5.5882352941176467</v>
+        <v>5.4705882352941178</v>
       </c>
       <c r="G427">
         <v>5.7857142857142856</v>
@@ -14638,28 +14635,28 @@
         <v>12</v>
       </c>
       <c r="B428">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C428" t="s">
         <v>439</v>
       </c>
       <c r="D428">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E428">
-        <v>5.0588235294117636</v>
+        <v>4.6470588235294121</v>
       </c>
       <c r="F428">
-        <v>5.4705882352941178</v>
+        <v>5.8235294117647056</v>
       </c>
       <c r="G428">
-        <v>5.7857142857142856</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="H428">
-        <v>0.78571428571428559</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I428">
-        <v>2.3571428571428572</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.45">
@@ -14673,13 +14670,13 @@
         <v>440</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E429">
-        <v>4.6470588235294121</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F429">
-        <v>5.8235294117647056</v>
+        <v>6.8</v>
       </c>
       <c r="G429">
         <v>5.0714285714285712</v>
@@ -14696,28 +14693,28 @@
         <v>12</v>
       </c>
       <c r="B430">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C430" t="s">
         <v>441</v>
       </c>
       <c r="D430">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E430">
-        <v>6.5333333333333332</v>
+        <v>3.2666666666666671</v>
       </c>
       <c r="F430">
-        <v>6.8</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G430">
-        <v>5.0714285714285712</v>
+        <v>5.6428571428571432</v>
       </c>
       <c r="H430">
-        <v>7.1428571428571175E-2</v>
+        <v>0.64285714285714324</v>
       </c>
       <c r="I430">
-        <v>1.571428571428571</v>
+        <v>3.285714285714286</v>
       </c>
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.45">
@@ -14731,13 +14728,13 @@
         <v>442</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E431">
-        <v>3.2666666666666671</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="F431">
-        <v>4.333333333333333</v>
+        <v>5.0588235294117636</v>
       </c>
       <c r="G431">
         <v>5.6428571428571432</v>
@@ -14754,28 +14751,28 @@
         <v>12</v>
       </c>
       <c r="B432">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C432" t="s">
         <v>443</v>
       </c>
       <c r="D432">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E432">
-        <v>4.5882352941176467</v>
+        <v>3.0588235294117641</v>
       </c>
       <c r="F432">
-        <v>5.0588235294117636</v>
+        <v>3.882352941176471</v>
       </c>
       <c r="G432">
-        <v>5.6428571428571432</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="H432">
-        <v>0.64285714285714324</v>
+        <v>0.85714285714285676</v>
       </c>
       <c r="I432">
-        <v>3.285714285714286</v>
+        <v>3</v>
       </c>
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.45">
@@ -14789,13 +14786,13 @@
         <v>444</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E433">
-        <v>3.0588235294117641</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="F433">
-        <v>3.882352941176471</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="G433">
         <v>4.1428571428571432</v>
@@ -14812,28 +14809,28 @@
         <v>12</v>
       </c>
       <c r="B434">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C434" t="s">
         <v>445</v>
       </c>
       <c r="D434">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E434">
-        <v>5.666666666666667</v>
+        <v>3.1333333333333329</v>
       </c>
       <c r="F434">
-        <v>6.333333333333333</v>
+        <v>3.8666666666666671</v>
       </c>
       <c r="G434">
-        <v>4.1428571428571432</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="H434">
         <v>0.85714285714285676</v>
       </c>
       <c r="I434">
-        <v>3</v>
+        <v>2.9285714285714279</v>
       </c>
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.45">
@@ -14847,13 +14844,13 @@
         <v>446</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E435">
-        <v>3.1333333333333329</v>
+        <v>5.3529411764705879</v>
       </c>
       <c r="F435">
-        <v>3.8666666666666671</v>
+        <v>6</v>
       </c>
       <c r="G435">
         <v>5.8571428571428568</v>
@@ -14870,28 +14867,28 @@
         <v>12</v>
       </c>
       <c r="B436">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C436" t="s">
         <v>447</v>
       </c>
       <c r="D436">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E436">
-        <v>5.3529411764705879</v>
+        <v>5.2142857142857144</v>
       </c>
       <c r="F436">
-        <v>6</v>
+        <v>6.3571428571428568</v>
       </c>
       <c r="G436">
-        <v>5.8571428571428568</v>
+        <v>5.5625</v>
       </c>
       <c r="H436">
-        <v>0.85714285714285676</v>
+        <v>0.5625</v>
       </c>
       <c r="I436">
-        <v>2.9285714285714279</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.45">
@@ -14905,13 +14902,13 @@
         <v>448</v>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E437">
-        <v>5.2142857142857144</v>
+        <v>5.117647058823529</v>
       </c>
       <c r="F437">
-        <v>6.3571428571428568</v>
+        <v>6</v>
       </c>
       <c r="G437">
         <v>5.5625</v>
@@ -14928,28 +14925,28 @@
         <v>12</v>
       </c>
       <c r="B438">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C438" t="s">
         <v>449</v>
       </c>
       <c r="D438">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E438">
-        <v>5.117647058823529</v>
+        <v>4.3529411764705879</v>
       </c>
       <c r="F438">
-        <v>6</v>
+        <v>5.5294117647058822</v>
       </c>
       <c r="G438">
-        <v>5.5625</v>
+        <v>5.0625</v>
       </c>
       <c r="H438">
-        <v>0.5625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I438">
-        <v>2.4375</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.45">
@@ -14963,13 +14960,13 @@
         <v>450</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E439">
-        <v>4.3529411764705879</v>
+        <v>5.2</v>
       </c>
       <c r="F439">
-        <v>5.5294117647058822</v>
+        <v>6.4</v>
       </c>
       <c r="G439">
         <v>5.0625</v>
@@ -14986,28 +14983,28 @@
         <v>12</v>
       </c>
       <c r="B440">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C440" t="s">
         <v>451</v>
       </c>
       <c r="D440">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E440">
-        <v>5.2</v>
+        <v>3.3529411764705879</v>
       </c>
       <c r="F440">
-        <v>6.4</v>
+        <v>4</v>
       </c>
       <c r="G440">
-        <v>5.0625</v>
+        <v>5.2142857142857144</v>
       </c>
       <c r="H440">
-        <v>6.25E-2</v>
+        <v>0.21428571428571441</v>
       </c>
       <c r="I440">
-        <v>2.5</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.45">
@@ -15021,13 +15018,13 @@
         <v>452</v>
       </c>
       <c r="D441">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E441">
-        <v>3.3529411764705879</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="F441">
-        <v>4</v>
+        <v>5.6470588235294121</v>
       </c>
       <c r="G441">
         <v>5.2142857142857144</v>
@@ -15044,25 +15041,25 @@
         <v>12</v>
       </c>
       <c r="B442">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C442" t="s">
         <v>453</v>
       </c>
       <c r="D442">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E442">
-        <v>5.882352941176471</v>
+        <v>3.2666666666666671</v>
       </c>
       <c r="F442">
-        <v>5.6470588235294121</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="G442">
-        <v>5.2142857142857144</v>
+        <v>5.6428571428571432</v>
       </c>
       <c r="H442">
-        <v>0.21428571428571441</v>
+        <v>0.64285714285714324</v>
       </c>
       <c r="I442">
         <v>1.857142857142857</v>
@@ -15079,13 +15076,13 @@
         <v>454</v>
       </c>
       <c r="D443">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E443">
-        <v>3.2666666666666671</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F443">
-        <v>5.5333333333333332</v>
+        <v>6.2</v>
       </c>
       <c r="G443">
         <v>5.6428571428571432</v>
@@ -15102,28 +15099,28 @@
         <v>12</v>
       </c>
       <c r="B444">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C444" t="s">
         <v>455</v>
       </c>
       <c r="D444">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E444">
-        <v>5.333333333333333</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="F444">
-        <v>6.2</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="G444">
-        <v>5.6428571428571432</v>
+        <v>5</v>
       </c>
       <c r="H444">
-        <v>0.64285714285714324</v>
+        <v>0</v>
       </c>
       <c r="I444">
-        <v>1.857142857142857</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.45">
@@ -15137,13 +15134,13 @@
         <v>456</v>
       </c>
       <c r="D445">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E445">
-        <v>4.2941176470588234</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="F445">
-        <v>4.5882352941176467</v>
+        <v>5.8666666666666663</v>
       </c>
       <c r="G445">
         <v>5</v>
@@ -15160,28 +15157,28 @@
         <v>12</v>
       </c>
       <c r="B446">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C446" t="s">
         <v>457</v>
       </c>
       <c r="D446">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E446">
-        <v>4.4666666666666668</v>
+        <v>4.2</v>
       </c>
       <c r="F446">
-        <v>5.8666666666666663</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="G446">
-        <v>5</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>0.71428571428571441</v>
       </c>
       <c r="I446">
-        <v>2.5</v>
+        <v>3.1428571428571428</v>
       </c>
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.45">
@@ -15195,13 +15192,13 @@
         <v>458</v>
       </c>
       <c r="D447">
-        <v>0</v>
+        <v>0.1875</v>
       </c>
       <c r="E447">
-        <v>4.2</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="F447">
-        <v>5.0666666666666664</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="G447">
         <v>5.7142857142857144</v>
@@ -15218,28 +15215,28 @@
         <v>12</v>
       </c>
       <c r="B448">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C448" t="s">
         <v>459</v>
       </c>
       <c r="D448">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="E448">
-        <v>4.2941176470588234</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F448">
-        <v>4.5882352941176467</v>
+        <v>5.2</v>
       </c>
       <c r="G448">
-        <v>5.7142857142857144</v>
+        <v>4.5625</v>
       </c>
       <c r="H448">
-        <v>0.71428571428571441</v>
+        <v>0.4375</v>
       </c>
       <c r="I448">
-        <v>3.1428571428571428</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.45">
@@ -15253,13 +15250,13 @@
         <v>460</v>
       </c>
       <c r="D449">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E449">
-        <v>4.333333333333333</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="F449">
-        <v>5.2</v>
+        <v>6.6428571428571432</v>
       </c>
       <c r="G449">
         <v>4.5625</v>
@@ -15276,28 +15273,28 @@
         <v>12</v>
       </c>
       <c r="B450">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C450" t="s">
         <v>461</v>
       </c>
       <c r="D450">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E450">
-        <v>6.5714285714285712</v>
+        <v>2.6</v>
       </c>
       <c r="F450">
-        <v>6.6428571428571432</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="G450">
-        <v>4.5625</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="H450">
-        <v>0.4375</v>
+        <v>0.21428571428571441</v>
       </c>
       <c r="I450">
-        <v>2.5</v>
+        <v>1.857142857142857</v>
       </c>
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.45">
@@ -15311,13 +15308,13 @@
         <v>462</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E451">
-        <v>2.6</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="F451">
-        <v>3.7333333333333329</v>
+        <v>5.8235294117647056</v>
       </c>
       <c r="G451">
         <v>4.7857142857142856</v>
@@ -15334,28 +15331,28 @@
         <v>12</v>
       </c>
       <c r="B452">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C452" t="s">
         <v>463</v>
       </c>
       <c r="D452">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E452">
-        <v>5.2352941176470589</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="F452">
-        <v>5.8235294117647056</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="G452">
-        <v>4.7857142857142856</v>
+        <v>4.6875</v>
       </c>
       <c r="H452">
-        <v>0.21428571428571441</v>
+        <v>0.3125</v>
       </c>
       <c r="I452">
-        <v>1.857142857142857</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.45">
@@ -15369,13 +15366,13 @@
         <v>464</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E453">
-        <v>4.5333333333333332</v>
+        <v>5.7857142857142856</v>
       </c>
       <c r="F453">
-        <v>5.4666666666666668</v>
+        <v>6.3571428571428568</v>
       </c>
       <c r="G453">
         <v>4.6875</v>
@@ -15392,28 +15389,28 @@
         <v>12</v>
       </c>
       <c r="B454">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C454" t="s">
         <v>465</v>
       </c>
       <c r="D454">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E454">
-        <v>5.7857142857142856</v>
+        <v>4.8235294117647056</v>
       </c>
       <c r="F454">
-        <v>6.3571428571428568</v>
+        <v>6.1764705882352944</v>
       </c>
       <c r="G454">
-        <v>4.6875</v>
+        <v>4.625</v>
       </c>
       <c r="H454">
-        <v>0.3125</v>
+        <v>0.375</v>
       </c>
       <c r="I454">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.45">
@@ -15427,13 +15424,13 @@
         <v>466</v>
       </c>
       <c r="D455">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E455">
-        <v>4.8235294117647056</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="F455">
-        <v>6.1764705882352944</v>
+        <v>6.6428571428571432</v>
       </c>
       <c r="G455">
         <v>4.625</v>
@@ -15450,28 +15447,28 @@
         <v>12</v>
       </c>
       <c r="B456">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C456" t="s">
         <v>467</v>
       </c>
       <c r="D456">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E456">
-        <v>6.5714285714285712</v>
+        <v>4.0588235294117636</v>
       </c>
       <c r="F456">
-        <v>6.6428571428571432</v>
+        <v>5.117647058823529</v>
       </c>
       <c r="G456">
-        <v>4.625</v>
+        <v>5.1875</v>
       </c>
       <c r="H456">
-        <v>0.375</v>
+        <v>0.1875</v>
       </c>
       <c r="I456">
-        <v>2.625</v>
+        <v>2.6875</v>
       </c>
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.45">
@@ -15485,13 +15482,13 @@
         <v>468</v>
       </c>
       <c r="D457">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E457">
-        <v>4.0588235294117636</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="F457">
-        <v>5.117647058823529</v>
+        <v>6.0714285714285712</v>
       </c>
       <c r="G457">
         <v>5.1875</v>
@@ -15508,28 +15505,28 @@
         <v>12</v>
       </c>
       <c r="B458">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C458" t="s">
         <v>469</v>
       </c>
       <c r="D458">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E458">
-        <v>5.4285714285714288</v>
+        <v>4.7647058823529411</v>
       </c>
       <c r="F458">
-        <v>6.0714285714285712</v>
+        <v>5.8235294117647056</v>
       </c>
       <c r="G458">
-        <v>5.1875</v>
+        <v>4.9375</v>
       </c>
       <c r="H458">
-        <v>0.1875</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I458">
-        <v>2.6875</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.45">
@@ -15543,13 +15540,13 @@
         <v>470</v>
       </c>
       <c r="D459">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E459">
-        <v>4.7647058823529411</v>
+        <v>6.4666666666666668</v>
       </c>
       <c r="F459">
-        <v>5.8235294117647056</v>
+        <v>6.7333333333333334</v>
       </c>
       <c r="G459">
         <v>4.9375</v>
@@ -15566,28 +15563,28 @@
         <v>12</v>
       </c>
       <c r="B460">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C460" t="s">
         <v>471</v>
       </c>
       <c r="D460">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E460">
-        <v>6.4666666666666668</v>
+        <v>3.4</v>
       </c>
       <c r="F460">
-        <v>6.7333333333333334</v>
+        <v>4.2</v>
       </c>
       <c r="G460">
-        <v>4.9375</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="H460">
-        <v>6.25E-2</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I460">
-        <v>1.9375</v>
+        <v>1.642857142857143</v>
       </c>
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.45">
@@ -15601,13 +15598,13 @@
         <v>472</v>
       </c>
       <c r="D461">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E461">
-        <v>3.4</v>
+        <v>6.2941176470588234</v>
       </c>
       <c r="F461">
-        <v>4.2</v>
+        <v>6.0588235294117636</v>
       </c>
       <c r="G461">
         <v>4.9285714285714288</v>
@@ -15624,28 +15621,28 @@
         <v>12</v>
       </c>
       <c r="B462">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C462" t="s">
         <v>473</v>
       </c>
       <c r="D462">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E462">
-        <v>6.2941176470588234</v>
+        <v>3.6</v>
       </c>
       <c r="F462">
-        <v>6.0588235294117636</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G462">
-        <v>4.9285714285714288</v>
+        <v>4.875</v>
       </c>
       <c r="H462">
-        <v>7.1428571428571175E-2</v>
+        <v>0.125</v>
       </c>
       <c r="I462">
-        <v>1.642857142857143</v>
+        <v>2.9375</v>
       </c>
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.45">
@@ -15659,13 +15656,13 @@
         <v>474</v>
       </c>
       <c r="D463">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E463">
-        <v>3.6</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F463">
-        <v>4.333333333333333</v>
+        <v>5.9333333333333336</v>
       </c>
       <c r="G463">
         <v>4.875</v>
@@ -15682,28 +15679,28 @@
         <v>12</v>
       </c>
       <c r="B464">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C464" t="s">
         <v>475</v>
       </c>
       <c r="D464">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E464">
-        <v>5.333333333333333</v>
+        <v>4.0666666666666664</v>
       </c>
       <c r="F464">
-        <v>5.9333333333333336</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="G464">
-        <v>4.875</v>
+        <v>5.75</v>
       </c>
       <c r="H464">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="I464">
-        <v>2.9375</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.45">
@@ -15717,13 +15714,13 @@
         <v>476</v>
       </c>
       <c r="D465">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E465">
-        <v>4.0666666666666664</v>
+        <v>4.4666666666666668</v>
       </c>
       <c r="F465">
-        <v>5.1333333333333337</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="G465">
         <v>5.75</v>
@@ -15740,28 +15737,28 @@
         <v>12</v>
       </c>
       <c r="B466">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C466" t="s">
         <v>477</v>
       </c>
       <c r="D466">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E466">
-        <v>4.4666666666666668</v>
+        <v>3.4117647058823528</v>
       </c>
       <c r="F466">
-        <v>5.666666666666667</v>
+        <v>4.117647058823529</v>
       </c>
       <c r="G466">
-        <v>5.75</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="H466">
-        <v>0.75</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I466">
-        <v>3.125</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.45">
@@ -15775,13 +15772,13 @@
         <v>478</v>
       </c>
       <c r="D467">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E467">
-        <v>3.4117647058823528</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="F467">
-        <v>4.117647058823529</v>
+        <v>6.4</v>
       </c>
       <c r="G467">
         <v>5.0714285714285712</v>
@@ -15798,28 +15795,28 @@
         <v>12</v>
       </c>
       <c r="B468">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="C468" t="s">
         <v>479</v>
       </c>
       <c r="D468">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E468">
-        <v>6.5333333333333332</v>
+        <v>5</v>
       </c>
       <c r="F468">
-        <v>6.4</v>
+        <v>4.9411764705882364</v>
       </c>
       <c r="G468">
-        <v>5.0714285714285712</v>
+        <v>4.3571428571428568</v>
       </c>
       <c r="H468">
-        <v>7.1428571428571175E-2</v>
+        <v>0.64285714285714324</v>
       </c>
       <c r="I468">
-        <v>1.928571428571429</v>
+        <v>3.5714285714285721</v>
       </c>
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.45">
@@ -15833,13 +15830,13 @@
         <v>480</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E469">
-        <v>5</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F469">
-        <v>4.9411764705882364</v>
+        <v>6.4</v>
       </c>
       <c r="G469">
         <v>4.3571428571428568</v>
@@ -15856,28 +15853,28 @@
         <v>12</v>
       </c>
       <c r="B470">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C470" t="s">
         <v>481</v>
       </c>
       <c r="D470">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E470">
-        <v>6.333333333333333</v>
+        <v>3.0666666666666669</v>
       </c>
       <c r="F470">
-        <v>6.4</v>
+        <v>4.2666666666666666</v>
       </c>
       <c r="G470">
-        <v>4.3571428571428568</v>
+        <v>5.4285714285714288</v>
       </c>
       <c r="H470">
-        <v>0.64285714285714324</v>
+        <v>0.42857142857142883</v>
       </c>
       <c r="I470">
-        <v>3.5714285714285721</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.45">
@@ -15891,13 +15888,13 @@
         <v>482</v>
       </c>
       <c r="D471">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E471">
-        <v>3.0666666666666669</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="F471">
-        <v>4.2666666666666666</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="G471">
         <v>5.4285714285714288</v>
@@ -15914,28 +15911,28 @@
         <v>12</v>
       </c>
       <c r="B472">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C472" t="s">
         <v>483</v>
       </c>
       <c r="D472">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E472">
-        <v>5.4666666666666668</v>
+        <v>4.2857142857142856</v>
       </c>
       <c r="F472">
-        <v>5.7333333333333334</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="G472">
-        <v>5.4285714285714288</v>
+        <v>4.8125</v>
       </c>
       <c r="H472">
-        <v>0.42857142857142883</v>
+        <v>0.1875</v>
       </c>
       <c r="I472">
-        <v>1.928571428571429</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.45">
@@ -15949,13 +15946,13 @@
         <v>484</v>
       </c>
       <c r="D473">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E473">
-        <v>4.2857142857142856</v>
+        <v>5.2941176470588234</v>
       </c>
       <c r="F473">
-        <v>5.8571428571428568</v>
+        <v>6</v>
       </c>
       <c r="G473">
         <v>4.8125</v>
@@ -15972,28 +15969,28 @@
         <v>12</v>
       </c>
       <c r="B474">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C474" t="s">
         <v>485</v>
       </c>
       <c r="D474">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E474">
-        <v>5.2941176470588234</v>
+        <v>3.9333333333333331</v>
       </c>
       <c r="F474">
-        <v>6</v>
+        <v>5.2</v>
       </c>
       <c r="G474">
-        <v>4.8125</v>
+        <v>5</v>
       </c>
       <c r="H474">
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="I474">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.45">
@@ -16007,13 +16004,13 @@
         <v>486</v>
       </c>
       <c r="D475">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E475">
-        <v>3.9333333333333331</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="F475">
-        <v>5.2</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="G475">
         <v>5</v>
@@ -16030,28 +16027,28 @@
         <v>12</v>
       </c>
       <c r="B476">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C476" t="s">
         <v>487</v>
       </c>
       <c r="D476">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E476">
-        <v>5.5714285714285712</v>
+        <v>4.2</v>
       </c>
       <c r="F476">
-        <v>6.4285714285714288</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="G476">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I476">
-        <v>2.5</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.45">
@@ -16065,13 +16062,13 @@
         <v>488</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E477">
-        <v>4.2</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F477">
-        <v>5.4666666666666668</v>
+        <v>6.4</v>
       </c>
       <c r="G477">
         <v>4.875</v>
@@ -16088,28 +16085,28 @@
         <v>12</v>
       </c>
       <c r="B478">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C478" t="s">
         <v>489</v>
       </c>
       <c r="D478">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E478">
-        <v>6.333333333333333</v>
+        <v>2.9333333333333331</v>
       </c>
       <c r="F478">
-        <v>6.4</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="G478">
-        <v>4.875</v>
+        <v>5.6428571428571432</v>
       </c>
       <c r="H478">
-        <v>0.125</v>
+        <v>0.64285714285714324</v>
       </c>
       <c r="I478">
-        <v>2.1875</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.45">
@@ -16123,13 +16120,13 @@
         <v>490</v>
       </c>
       <c r="D479">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E479">
-        <v>2.9333333333333331</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="F479">
-        <v>4.1333333333333337</v>
+        <v>5.5294117647058822</v>
       </c>
       <c r="G479">
         <v>5.6428571428571432</v>
@@ -16146,28 +16143,28 @@
         <v>12</v>
       </c>
       <c r="B480">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C480" t="s">
         <v>491</v>
       </c>
       <c r="D480">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E480">
-        <v>5.2352941176470589</v>
+        <v>2.9411764705882359</v>
       </c>
       <c r="F480">
-        <v>5.5294117647058822</v>
+        <v>3.9411764705882359</v>
       </c>
       <c r="G480">
-        <v>5.6428571428571432</v>
+        <v>4.5714285714285712</v>
       </c>
       <c r="H480">
-        <v>0.64285714285714324</v>
+        <v>0.42857142857142883</v>
       </c>
       <c r="I480">
-        <v>1.928571428571429</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.45">
@@ -16181,13 +16178,13 @@
         <v>492</v>
       </c>
       <c r="D481">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E481">
-        <v>2.9411764705882359</v>
+        <v>6</v>
       </c>
       <c r="F481">
-        <v>3.9411764705882359</v>
+        <v>6.1764705882352944</v>
       </c>
       <c r="G481">
         <v>4.5714285714285712</v>
@@ -16204,28 +16201,28 @@
         <v>12</v>
       </c>
       <c r="B482">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="C482" t="s">
         <v>493</v>
       </c>
       <c r="D482">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E482">
-        <v>6</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="F482">
-        <v>6.1764705882352944</v>
+        <v>5.8571428571428568</v>
       </c>
       <c r="G482">
-        <v>4.5714285714285712</v>
+        <v>5.375</v>
       </c>
       <c r="H482">
-        <v>0.42857142857142883</v>
+        <v>0.375</v>
       </c>
       <c r="I482">
-        <v>2.5</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.45">
@@ -16239,13 +16236,13 @@
         <v>494</v>
       </c>
       <c r="D483">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E483">
-        <v>5.0714285714285712</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="F483">
-        <v>5.8571428571428568</v>
+        <v>6.8235294117647056</v>
       </c>
       <c r="G483">
         <v>5.375</v>
@@ -16262,28 +16259,28 @@
         <v>12</v>
       </c>
       <c r="B484">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C484" t="s">
         <v>495</v>
       </c>
       <c r="D484">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E484">
-        <v>6.117647058823529</v>
+        <v>3.8235294117647061</v>
       </c>
       <c r="F484">
-        <v>6.8235294117647056</v>
+        <v>5.1764705882352944</v>
       </c>
       <c r="G484">
-        <v>5.375</v>
+        <v>4.5625</v>
       </c>
       <c r="H484">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="I484">
-        <v>2.4375</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.45">
@@ -16297,13 +16294,13 @@
         <v>496</v>
       </c>
       <c r="D485">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E485">
-        <v>3.8235294117647061</v>
+        <v>5.6428571428571432</v>
       </c>
       <c r="F485">
-        <v>5.1764705882352944</v>
+        <v>6.2142857142857144</v>
       </c>
       <c r="G485">
         <v>4.5625</v>
@@ -16320,28 +16317,28 @@
         <v>12</v>
       </c>
       <c r="B486">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C486" t="s">
         <v>497</v>
       </c>
       <c r="D486">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E486">
-        <v>5.6428571428571432</v>
+        <v>4.4705882352941178</v>
       </c>
       <c r="F486">
-        <v>6.2142857142857144</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="G486">
-        <v>4.5625</v>
+        <v>4.75</v>
       </c>
       <c r="H486">
-        <v>0.4375</v>
+        <v>0.25</v>
       </c>
       <c r="I486">
-        <v>2.625</v>
+        <v>1.8125</v>
       </c>
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.45">
@@ -16355,13 +16352,13 @@
         <v>498</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E487">
-        <v>4.4705882352941178</v>
+        <v>6.0714285714285712</v>
       </c>
       <c r="F487">
-        <v>6.117647058823529</v>
+        <v>6.4285714285714288</v>
       </c>
       <c r="G487">
         <v>4.75</v>
@@ -16378,28 +16375,28 @@
         <v>12</v>
       </c>
       <c r="B488">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C488" t="s">
         <v>499</v>
       </c>
       <c r="D488">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E488">
-        <v>6.0714285714285712</v>
+        <v>4.0588235294117636</v>
       </c>
       <c r="F488">
-        <v>6.4285714285714288</v>
+        <v>5.7647058823529411</v>
       </c>
       <c r="G488">
-        <v>4.75</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="H488">
-        <v>0.25</v>
+        <v>0.21428571428571441</v>
       </c>
       <c r="I488">
-        <v>1.8125</v>
+        <v>2.3571428571428572</v>
       </c>
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.45">
@@ -16413,13 +16410,13 @@
         <v>500</v>
       </c>
       <c r="D489">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E489">
-        <v>4.0588235294117636</v>
+        <v>4.4117647058823533</v>
       </c>
       <c r="F489">
-        <v>5.7647058823529411</v>
+        <v>5.5882352941176467</v>
       </c>
       <c r="G489">
         <v>4.7857142857142856</v>
@@ -16436,28 +16433,28 @@
         <v>12</v>
       </c>
       <c r="B490">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C490" t="s">
         <v>501</v>
       </c>
       <c r="D490">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E490">
-        <v>4.4117647058823533</v>
+        <v>4.882352941176471</v>
       </c>
       <c r="F490">
-        <v>5.5882352941176467</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="G490">
-        <v>4.7857142857142856</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="H490">
-        <v>0.21428571428571441</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I490">
-        <v>2.3571428571428572</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.45">
@@ -16471,13 +16468,13 @@
         <v>502</v>
       </c>
       <c r="D491">
-        <v>0</v>
+        <v>0.27777777777777779</v>
       </c>
       <c r="E491">
-        <v>4.882352941176471</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="F491">
-        <v>6.117647058823529</v>
+        <v>6.5294117647058822</v>
       </c>
       <c r="G491">
         <v>4.9285714285714288</v>
@@ -16494,28 +16491,28 @@
         <v>12</v>
       </c>
       <c r="B492">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C492" t="s">
         <v>503</v>
       </c>
       <c r="D492">
-        <v>0.27777777777777779</v>
+        <v>0</v>
       </c>
       <c r="E492">
-        <v>6.4705882352941178</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="F492">
-        <v>6.5294117647058822</v>
+        <v>6</v>
       </c>
       <c r="G492">
-        <v>4.9285714285714288</v>
+        <v>4.5</v>
       </c>
       <c r="H492">
-        <v>7.1428571428571175E-2</v>
+        <v>0.5</v>
       </c>
       <c r="I492">
-        <v>2</v>
+        <v>2.214285714285714</v>
       </c>
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.45">
@@ -16529,13 +16526,13 @@
         <v>504</v>
       </c>
       <c r="D493">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E493">
-        <v>4.5882352941176467</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="F493">
-        <v>6</v>
+        <v>6.0588235294117636</v>
       </c>
       <c r="G493">
         <v>4.5</v>
@@ -16552,28 +16549,28 @@
         <v>12</v>
       </c>
       <c r="B494">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C494" t="s">
         <v>505</v>
       </c>
       <c r="D494">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E494">
-        <v>5.7058823529411766</v>
+        <v>2.8235294117647061</v>
       </c>
       <c r="F494">
-        <v>6.0588235294117636</v>
+        <v>4.117647058823529</v>
       </c>
       <c r="G494">
-        <v>4.5</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="H494">
-        <v>0.5</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I494">
-        <v>2.214285714285714</v>
+        <v>1.571428571428571</v>
       </c>
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.45">
@@ -16587,13 +16584,13 @@
         <v>506</v>
       </c>
       <c r="D495">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E495">
-        <v>2.8235294117647061</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="F495">
-        <v>4.117647058823529</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="G495">
         <v>4.9285714285714288</v>
@@ -16610,28 +16607,28 @@
         <v>12</v>
       </c>
       <c r="B496">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C496" t="s">
         <v>507</v>
       </c>
       <c r="D496">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E496">
-        <v>4.2941176470588234</v>
+        <v>4.5882352941176467</v>
       </c>
       <c r="F496">
-        <v>5.882352941176471</v>
+        <v>5.9411764705882364</v>
       </c>
       <c r="G496">
-        <v>4.9285714285714288</v>
+        <v>4.1428571428571432</v>
       </c>
       <c r="H496">
-        <v>7.1428571428571175E-2</v>
+        <v>0.85714285714285676</v>
       </c>
       <c r="I496">
-        <v>1.571428571428571</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.45">
@@ -16645,13 +16642,13 @@
         <v>508</v>
       </c>
       <c r="D497">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E497">
-        <v>4.5882352941176467</v>
+        <v>6.2352941176470589</v>
       </c>
       <c r="F497">
-        <v>5.9411764705882364</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="G497">
         <v>4.1428571428571432</v>
@@ -16668,28 +16665,28 @@
         <v>12</v>
       </c>
       <c r="B498">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="C498" t="s">
         <v>509</v>
       </c>
       <c r="D498">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E498">
-        <v>6.2352941176470589</v>
+        <v>2.8235294117647061</v>
       </c>
       <c r="F498">
-        <v>6.5882352941176467</v>
+        <v>5.117647058823529</v>
       </c>
       <c r="G498">
-        <v>4.1428571428571432</v>
+        <v>5</v>
       </c>
       <c r="H498">
-        <v>0.85714285714285676</v>
+        <v>0</v>
       </c>
       <c r="I498">
-        <v>3</v>
+        <v>2.0714285714285721</v>
       </c>
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.45">
@@ -16703,13 +16700,13 @@
         <v>510</v>
       </c>
       <c r="D499">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E499">
-        <v>2.8235294117647061</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="F499">
-        <v>5.117647058823529</v>
+        <v>6.6470588235294121</v>
       </c>
       <c r="G499">
         <v>5</v>
@@ -16726,28 +16723,28 @@
         <v>12</v>
       </c>
       <c r="B500">
-        <v>455</v>
+        <v>479</v>
       </c>
       <c r="C500" t="s">
         <v>511</v>
       </c>
       <c r="D500">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E500">
-        <v>6.5882352941176467</v>
+        <v>4.7647058823529411</v>
       </c>
       <c r="F500">
-        <v>6.6470588235294121</v>
+        <v>5.4117647058823533</v>
       </c>
       <c r="G500">
-        <v>5</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>0.28571428571428559</v>
       </c>
       <c r="I500">
-        <v>2.0714285714285721</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.45">
@@ -16761,13 +16758,13 @@
         <v>512</v>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E501">
-        <v>4.7647058823529411</v>
+        <v>6.2941176470588234</v>
       </c>
       <c r="F501">
-        <v>5.4117647058823533</v>
+        <v>6.6470588235294121</v>
       </c>
       <c r="G501">
         <v>5.2857142857142856</v>
@@ -16784,28 +16781,28 @@
         <v>12</v>
       </c>
       <c r="B502">
-        <v>479</v>
+        <v>495</v>
       </c>
       <c r="C502" t="s">
         <v>513</v>
       </c>
       <c r="D502">
-        <v>0.1333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E502">
-        <v>6.2941176470588234</v>
+        <v>3.7333333333333329</v>
       </c>
       <c r="F502">
-        <v>6.6470588235294121</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="G502">
-        <v>5.2857142857142856</v>
+        <v>4.5</v>
       </c>
       <c r="H502">
-        <v>0.28571428571428559</v>
+        <v>0.5</v>
       </c>
       <c r="I502">
-        <v>1.928571428571429</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.45">
@@ -16819,13 +16816,13 @@
         <v>514</v>
       </c>
       <c r="D503">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E503">
-        <v>3.7333333333333329</v>
+        <v>4.7857142857142856</v>
       </c>
       <c r="F503">
-        <v>4.333333333333333</v>
+        <v>5.7857142857142856</v>
       </c>
       <c r="G503">
         <v>4.5</v>
@@ -16842,28 +16839,28 @@
         <v>12</v>
       </c>
       <c r="B504">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C504" t="s">
         <v>515</v>
       </c>
       <c r="D504">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E504">
-        <v>4.7857142857142856</v>
+        <v>3.3529411764705879</v>
       </c>
       <c r="F504">
-        <v>5.7857142857142856</v>
+        <v>4.882352941176471</v>
       </c>
       <c r="G504">
-        <v>4.5</v>
+        <v>5.4375</v>
       </c>
       <c r="H504">
-        <v>0.5</v>
+        <v>0.4375</v>
       </c>
       <c r="I504">
-        <v>2.4375</v>
+        <v>2.1875</v>
       </c>
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.45">
@@ -16877,13 +16874,13 @@
         <v>516</v>
       </c>
       <c r="D505">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E505">
-        <v>3.3529411764705879</v>
+        <v>5.1428571428571432</v>
       </c>
       <c r="F505">
-        <v>4.882352941176471</v>
+        <v>5.6428571428571432</v>
       </c>
       <c r="G505">
         <v>5.4375</v>
@@ -16900,28 +16897,28 @@
         <v>12</v>
       </c>
       <c r="B506">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="C506" t="s">
         <v>517</v>
       </c>
       <c r="D506">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E506">
-        <v>5.1428571428571432</v>
+        <v>3.1764705882352939</v>
       </c>
       <c r="F506">
-        <v>5.6428571428571432</v>
+        <v>4.6470588235294121</v>
       </c>
       <c r="G506">
-        <v>5.4375</v>
+        <v>5.7142857142857144</v>
       </c>
       <c r="H506">
-        <v>0.4375</v>
+        <v>0.71428571428571441</v>
       </c>
       <c r="I506">
-        <v>2.1875</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.45">
@@ -16935,13 +16932,13 @@
         <v>518</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E507">
-        <v>3.1764705882352939</v>
+        <v>6</v>
       </c>
       <c r="F507">
-        <v>4.6470588235294121</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="G507">
         <v>5.7142857142857144</v>
@@ -16958,28 +16955,28 @@
         <v>12</v>
       </c>
       <c r="B508">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="C508" t="s">
         <v>519</v>
       </c>
       <c r="D508">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E508">
-        <v>6</v>
+        <v>4.882352941176471</v>
       </c>
       <c r="F508">
-        <v>6.4705882352941178</v>
+        <v>6.0588235294117636</v>
       </c>
       <c r="G508">
-        <v>5.7142857142857144</v>
+        <v>5.5714285714285712</v>
       </c>
       <c r="H508">
-        <v>0.71428571428571441</v>
+        <v>0.57142857142857117</v>
       </c>
       <c r="I508">
-        <v>1.928571428571429</v>
+        <v>2.5714285714285721</v>
       </c>
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.45">
@@ -16993,13 +16990,13 @@
         <v>520</v>
       </c>
       <c r="D509">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E509">
-        <v>4.882352941176471</v>
+        <v>6.1764705882352944</v>
       </c>
       <c r="F509">
-        <v>6.0588235294117636</v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="G509">
         <v>5.5714285714285712</v>
@@ -17016,28 +17013,28 @@
         <v>12</v>
       </c>
       <c r="B510">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C510" t="s">
         <v>521</v>
       </c>
       <c r="D510">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E510">
-        <v>6.1764705882352944</v>
+        <v>2.2352941176470589</v>
       </c>
       <c r="F510">
-        <v>6.4117647058823533</v>
+        <v>3.7647058823529411</v>
       </c>
       <c r="G510">
-        <v>5.5714285714285712</v>
+        <v>5.7857142857142856</v>
       </c>
       <c r="H510">
-        <v>0.57142857142857117</v>
+        <v>0.78571428571428559</v>
       </c>
       <c r="I510">
-        <v>2.5714285714285721</v>
+        <v>2.3571428571428572</v>
       </c>
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.45">
@@ -17051,13 +17048,13 @@
         <v>522</v>
       </c>
       <c r="D511">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E511">
-        <v>2.2352941176470589</v>
+        <v>6.117647058823529</v>
       </c>
       <c r="F511">
-        <v>3.7647058823529411</v>
+        <v>6.7058823529411766</v>
       </c>
       <c r="G511">
         <v>5.7857142857142856</v>
@@ -17074,28 +17071,28 @@
         <v>12</v>
       </c>
       <c r="B512">
-        <v>535</v>
+        <v>551</v>
       </c>
       <c r="C512" t="s">
         <v>523</v>
       </c>
       <c r="D512">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E512">
-        <v>6.117647058823529</v>
+        <v>3.7647058823529411</v>
       </c>
       <c r="F512">
-        <v>6.7058823529411766</v>
+        <v>5.2941176470588234</v>
       </c>
       <c r="G512">
-        <v>5.7857142857142856</v>
+        <v>5.0714285714285712</v>
       </c>
       <c r="H512">
-        <v>0.78571428571428559</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I512">
-        <v>2.3571428571428572</v>
+        <v>2.0714285714285721</v>
       </c>
     </row>
     <row r="513" spans="1:9" x14ac:dyDescent="0.45">
@@ -17109,13 +17106,13 @@
         <v>524</v>
       </c>
       <c r="D513">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E513">
-        <v>3.7647058823529411</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="F513">
-        <v>5.2941176470588234</v>
+        <v>6.7647058823529411</v>
       </c>
       <c r="G513">
         <v>5.0714285714285712</v>
@@ -17132,28 +17129,28 @@
         <v>12</v>
       </c>
       <c r="B514">
-        <v>551</v>
+        <v>563</v>
       </c>
       <c r="C514" t="s">
         <v>525</v>
       </c>
       <c r="D514">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E514">
-        <v>6.4705882352941178</v>
+        <v>4.3529411764705879</v>
       </c>
       <c r="F514">
-        <v>6.7647058823529411</v>
+        <v>6.0588235294117636</v>
       </c>
       <c r="G514">
-        <v>5.0714285714285712</v>
+        <v>5.2142857142857144</v>
       </c>
       <c r="H514">
-        <v>7.1428571428571175E-2</v>
+        <v>0.21428571428571441</v>
       </c>
       <c r="I514">
-        <v>2.0714285714285721</v>
+        <v>3.285714285714286</v>
       </c>
     </row>
     <row r="515" spans="1:9" x14ac:dyDescent="0.45">
@@ -17167,13 +17164,13 @@
         <v>526</v>
       </c>
       <c r="D515">
-        <v>0</v>
+        <v>0.26666666666666672</v>
       </c>
       <c r="E515">
-        <v>4.3529411764705879</v>
+        <v>3.7647058823529411</v>
       </c>
       <c r="F515">
-        <v>6.0588235294117636</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="G515">
         <v>5.2142857142857144</v>
@@ -17190,28 +17187,28 @@
         <v>12</v>
       </c>
       <c r="B516">
-        <v>563</v>
+        <v>579</v>
       </c>
       <c r="C516" t="s">
         <v>527</v>
       </c>
       <c r="D516">
-        <v>0.26666666666666672</v>
+        <v>0</v>
       </c>
       <c r="E516">
-        <v>3.7647058823529411</v>
+        <v>3.2941176470588229</v>
       </c>
       <c r="F516">
-        <v>5.2352941176470589</v>
+        <v>4.2352941176470589</v>
       </c>
       <c r="G516">
-        <v>5.2142857142857144</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="H516">
-        <v>0.21428571428571441</v>
+        <v>0.14285714285714321</v>
       </c>
       <c r="I516">
-        <v>3.285714285714286</v>
+        <v>1.928571428571429</v>
       </c>
     </row>
     <row r="517" spans="1:9" x14ac:dyDescent="0.45">
@@ -17225,13 +17222,13 @@
         <v>528</v>
       </c>
       <c r="D517">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E517">
-        <v>3.2941176470588229</v>
+        <v>6.3529411764705879</v>
       </c>
       <c r="F517">
-        <v>4.2352941176470589</v>
+        <v>6.5294117647058822</v>
       </c>
       <c r="G517">
         <v>4.8571428571428568</v>
@@ -17248,28 +17245,28 @@
         <v>12</v>
       </c>
       <c r="B518">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C518" t="s">
         <v>529</v>
       </c>
       <c r="D518">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E518">
-        <v>6.3529411764705879</v>
+        <v>4.3529411764705879</v>
       </c>
       <c r="F518">
-        <v>6.5294117647058822</v>
+        <v>5.5294117647058822</v>
       </c>
       <c r="G518">
-        <v>4.8571428571428568</v>
+        <v>4.9285714285714288</v>
       </c>
       <c r="H518">
-        <v>0.14285714285714321</v>
+        <v>7.1428571428571175E-2</v>
       </c>
       <c r="I518">
-        <v>1.928571428571429</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="519" spans="1:9" x14ac:dyDescent="0.45">
@@ -17283,13 +17280,13 @@
         <v>530</v>
       </c>
       <c r="D519">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E519">
-        <v>4.3529411764705879</v>
+        <v>5.882352941176471</v>
       </c>
       <c r="F519">
-        <v>5.5294117647058822</v>
+        <v>6.4705882352941178</v>
       </c>
       <c r="G519">
         <v>4.9285714285714288</v>
@@ -17306,28 +17303,28 @@
         <v>12</v>
       </c>
       <c r="B520">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C520" t="s">
         <v>531</v>
       </c>
       <c r="D520">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E520">
-        <v>5.882352941176471</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="F520">
-        <v>6.4705882352941178</v>
+        <v>6.4117647058823533</v>
       </c>
       <c r="G520">
-        <v>4.9285714285714288</v>
+        <v>4.6428571428571432</v>
       </c>
       <c r="H520">
-        <v>7.1428571428571175E-2</v>
+        <v>0.35714285714285682</v>
       </c>
       <c r="I520">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="521" spans="1:9" x14ac:dyDescent="0.45">
@@ -17341,13 +17338,13 @@
         <v>532</v>
       </c>
       <c r="D521">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E521">
-        <v>5.7058823529411766</v>
+        <v>6.3529411764705879</v>
       </c>
       <c r="F521">
-        <v>6.4117647058823533</v>
+        <v>6.5882352941176467</v>
       </c>
       <c r="G521">
         <v>4.6428571428571432</v>
@@ -17364,28 +17361,28 @@
         <v>12</v>
       </c>
       <c r="B522">
-        <v>587</v>
+        <v>1007</v>
       </c>
       <c r="C522" t="s">
         <v>533</v>
       </c>
       <c r="D522">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="E522">
-        <v>6.3529411764705879</v>
+        <v>4</v>
       </c>
       <c r="F522">
-        <v>6.5882352941176467</v>
+        <v>5</v>
       </c>
       <c r="G522">
-        <v>4.6428571428571432</v>
+        <v>4.9375</v>
       </c>
       <c r="H522">
-        <v>0.35714285714285682</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I522">
-        <v>3.5</v>
+        <v>1.6875</v>
       </c>
     </row>
     <row r="523" spans="1:9" x14ac:dyDescent="0.45">
@@ -17399,13 +17396,13 @@
         <v>534</v>
       </c>
       <c r="D523">
-        <v>0</v>
+        <v>6.6667000000000004E-2</v>
       </c>
       <c r="E523">
-        <v>4</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="F523">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="G523">
         <v>4.9375</v>
@@ -17422,28 +17419,28 @@
         <v>12</v>
       </c>
       <c r="B524">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="C524" t="s">
         <v>535</v>
       </c>
       <c r="D524">
-        <v>6.6667000000000004E-2</v>
+        <v>0</v>
       </c>
       <c r="E524">
-        <v>6.333333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="F524">
-        <v>6.6</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="G524">
-        <v>4.9375</v>
+        <v>5.0625</v>
       </c>
       <c r="H524">
         <v>6.25E-2</v>
       </c>
       <c r="I524">
-        <v>1.6875</v>
+        <v>2.5625</v>
       </c>
     </row>
     <row r="525" spans="1:9" x14ac:dyDescent="0.45">
@@ -17457,13 +17454,13 @@
         <v>536</v>
       </c>
       <c r="D525">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E525">
-        <v>3.2</v>
+        <v>4.1333333333333337</v>
       </c>
       <c r="F525">
-        <v>4.1333333333333337</v>
+        <v>5.2666666666666666</v>
       </c>
       <c r="G525">
         <v>5.0625</v>
@@ -17480,28 +17477,28 @@
         <v>12</v>
       </c>
       <c r="B526">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C526" t="s">
         <v>537</v>
       </c>
       <c r="D526">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E526">
-        <v>4.1333333333333337</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="F526">
-        <v>5.2666666666666666</v>
+        <v>6.3529411764705879</v>
       </c>
       <c r="G526">
-        <v>5.0625</v>
+        <v>4.4375</v>
       </c>
       <c r="H526">
-        <v>6.25E-2</v>
+        <v>0.5625</v>
       </c>
       <c r="I526">
-        <v>2.5625</v>
+        <v>2.3125</v>
       </c>
     </row>
     <row r="527" spans="1:9" x14ac:dyDescent="0.45">
@@ -17515,13 +17512,13 @@
         <v>538</v>
       </c>
       <c r="D527">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="E527">
-        <v>5.7058823529411766</v>
+        <v>6.6428571428571432</v>
       </c>
       <c r="F527">
-        <v>6.3529411764705879</v>
+        <v>6.6428571428571432</v>
       </c>
       <c r="G527">
         <v>4.4375</v>
@@ -17538,19 +17535,19 @@
         <v>12</v>
       </c>
       <c r="B528">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="C528" t="s">
         <v>539</v>
       </c>
       <c r="D528">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E528">
-        <v>6.6428571428571432</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="F528">
-        <v>6.6428571428571432</v>
+        <v>5.7058823529411766</v>
       </c>
       <c r="G528">
         <v>4.4375</v>
@@ -17559,7 +17556,7 @@
         <v>0.5625</v>
       </c>
       <c r="I528">
-        <v>2.3125</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="529" spans="1:9" x14ac:dyDescent="0.45">
@@ -17573,13 +17570,13 @@
         <v>540</v>
       </c>
       <c r="D529">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E529">
-        <v>5.2352941176470589</v>
+        <v>6.2</v>
       </c>
       <c r="F529">
-        <v>5.7058823529411766</v>
+        <v>6.5333333333333332</v>
       </c>
       <c r="G529">
         <v>4.4375</v>
@@ -17596,28 +17593,28 @@
         <v>12</v>
       </c>
       <c r="B530">
-        <v>1019</v>
+        <v>1031</v>
       </c>
       <c r="C530" t="s">
         <v>541</v>
       </c>
       <c r="D530">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E530">
-        <v>6.2</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="F530">
-        <v>6.5333333333333332</v>
+        <v>5.4117647058823533</v>
       </c>
       <c r="G530">
-        <v>4.4375</v>
+        <v>5.5625</v>
       </c>
       <c r="H530">
         <v>0.5625</v>
       </c>
       <c r="I530">
-        <v>2.0625</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="531" spans="1:9" x14ac:dyDescent="0.45">
@@ -17631,13 +17628,13 @@
         <v>542</v>
       </c>
       <c r="D531">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E531">
-        <v>5.2352941176470589</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F531">
-        <v>5.4117647058823533</v>
+        <v>6.0666666666666664</v>
       </c>
       <c r="G531">
         <v>5.5625</v>
@@ -17654,28 +17651,28 @@
         <v>12</v>
       </c>
       <c r="B532">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="C532" t="s">
         <v>543</v>
       </c>
       <c r="D532">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E532">
-        <v>5.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="F532">
-        <v>6.0666666666666664</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="G532">
-        <v>5.5625</v>
+        <v>5.375</v>
       </c>
       <c r="H532">
-        <v>0.5625</v>
+        <v>0.375</v>
       </c>
       <c r="I532">
-        <v>1.875</v>
+        <v>2.5625</v>
       </c>
     </row>
     <row r="533" spans="1:9" x14ac:dyDescent="0.45">
@@ -17689,13 +17686,13 @@
         <v>544</v>
       </c>
       <c r="D533">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E533">
-        <v>3.666666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="F533">
-        <v>5.5333333333333332</v>
+        <v>5.6</v>
       </c>
       <c r="G533">
         <v>5.375</v>
@@ -17712,28 +17709,28 @@
         <v>12</v>
       </c>
       <c r="B534">
-        <v>1039</v>
+        <v>1043</v>
       </c>
       <c r="C534" t="s">
         <v>545</v>
       </c>
       <c r="D534">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E534">
-        <v>3.6</v>
+        <v>5.1333333333333337</v>
       </c>
       <c r="F534">
-        <v>5.6</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="G534">
-        <v>5.375</v>
+        <v>4.625</v>
       </c>
       <c r="H534">
         <v>0.375</v>
       </c>
       <c r="I534">
-        <v>2.5625</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="535" spans="1:9" x14ac:dyDescent="0.45">
@@ -17747,10 +17744,10 @@
         <v>546</v>
       </c>
       <c r="D535">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E535">
-        <v>5.1333333333333337</v>
+        <v>5</v>
       </c>
       <c r="F535">
         <v>5.7333333333333334</v>
@@ -17770,28 +17767,28 @@
         <v>12</v>
       </c>
       <c r="B536">
-        <v>1043</v>
+        <v>1047</v>
       </c>
       <c r="C536" t="s">
         <v>547</v>
       </c>
       <c r="D536">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E536">
-        <v>5</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="F536">
-        <v>5.7333333333333334</v>
+        <v>5.2</v>
       </c>
       <c r="G536">
-        <v>4.625</v>
+        <v>5.375</v>
       </c>
       <c r="H536">
         <v>0.375</v>
       </c>
       <c r="I536">
-        <v>2.4375</v>
+        <v>2.8125</v>
       </c>
     </row>
     <row r="537" spans="1:9" x14ac:dyDescent="0.45">
@@ -17805,13 +17802,13 @@
         <v>548</v>
       </c>
       <c r="D537">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E537">
-        <v>4.333333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="F537">
-        <v>5.2</v>
+        <v>6.1333333333333337</v>
       </c>
       <c r="G537">
         <v>5.375</v>
@@ -17828,28 +17825,28 @@
         <v>12</v>
       </c>
       <c r="B538">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="C538" t="s">
         <v>549</v>
       </c>
       <c r="D538">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E538">
-        <v>5.333333333333333</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F538">
-        <v>6.1333333333333337</v>
+        <v>5.0666666666666664</v>
       </c>
       <c r="G538">
-        <v>5.375</v>
+        <v>4.9375</v>
       </c>
       <c r="H538">
-        <v>0.375</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I538">
-        <v>2.8125</v>
+        <v>2.0625</v>
       </c>
     </row>
     <row r="539" spans="1:9" x14ac:dyDescent="0.45">
@@ -17863,13 +17860,13 @@
         <v>550</v>
       </c>
       <c r="D539">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E539">
-        <v>4.4000000000000004</v>
+        <v>5.117647058823529</v>
       </c>
       <c r="F539">
-        <v>5.0666666666666664</v>
+        <v>5.3529411764705879</v>
       </c>
       <c r="G539">
         <v>4.9375</v>
@@ -17886,28 +17883,28 @@
         <v>12</v>
       </c>
       <c r="B540">
-        <v>1055</v>
+        <v>1059</v>
       </c>
       <c r="C540" t="s">
         <v>551</v>
       </c>
       <c r="D540">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E540">
-        <v>5.117647058823529</v>
+        <v>3.3529411764705879</v>
       </c>
       <c r="F540">
-        <v>5.3529411764705879</v>
+        <v>5</v>
       </c>
       <c r="G540">
-        <v>4.9375</v>
+        <v>5.0625</v>
       </c>
       <c r="H540">
         <v>6.25E-2</v>
       </c>
       <c r="I540">
-        <v>2.0625</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:9" x14ac:dyDescent="0.45">
@@ -17921,13 +17918,13 @@
         <v>552</v>
       </c>
       <c r="D541">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E541">
-        <v>3.3529411764705879</v>
+        <v>4.5333333333333332</v>
       </c>
       <c r="F541">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="G541">
         <v>5.0625</v>
@@ -17944,28 +17941,28 @@
         <v>12</v>
       </c>
       <c r="B542">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="C542" t="s">
         <v>553</v>
       </c>
       <c r="D542">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E542">
-        <v>4.5333333333333332</v>
+        <v>3.117647058823529</v>
       </c>
       <c r="F542">
-        <v>5.4</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="G542">
-        <v>5.0625</v>
+        <v>4.75</v>
       </c>
       <c r="H542">
-        <v>6.25E-2</v>
+        <v>0.25</v>
       </c>
       <c r="I542">
-        <v>2</v>
+        <v>3.0625</v>
       </c>
     </row>
     <row r="543" spans="1:9" x14ac:dyDescent="0.45">
@@ -17979,13 +17976,13 @@
         <v>554</v>
       </c>
       <c r="D543">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E543">
-        <v>3.117647058823529</v>
+        <v>5.7333333333333334</v>
       </c>
       <c r="F543">
-        <v>4.2941176470588234</v>
+        <v>6.4</v>
       </c>
       <c r="G543">
         <v>4.75</v>
@@ -18002,28 +17999,28 @@
         <v>12</v>
       </c>
       <c r="B544">
-        <v>1074</v>
+        <v>1146</v>
       </c>
       <c r="C544" t="s">
         <v>555</v>
       </c>
       <c r="D544">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E544">
-        <v>5.7333333333333334</v>
+        <v>3.8</v>
       </c>
       <c r="F544">
-        <v>6.4</v>
+        <v>4.7333333333333334</v>
       </c>
       <c r="G544">
-        <v>4.75</v>
+        <v>5.875</v>
       </c>
       <c r="H544">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
       <c r="I544">
-        <v>3.0625</v>
+        <v>4.25</v>
       </c>
     </row>
     <row r="545" spans="1:9" x14ac:dyDescent="0.45">
@@ -18037,13 +18034,13 @@
         <v>556</v>
       </c>
       <c r="D545">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E545">
-        <v>3.8</v>
+        <v>5.2857142857142856</v>
       </c>
       <c r="F545">
-        <v>4.7333333333333334</v>
+        <v>6.0714285714285712</v>
       </c>
       <c r="G545">
         <v>5.875</v>
@@ -18060,28 +18057,28 @@
         <v>12</v>
       </c>
       <c r="B546">
-        <v>1146</v>
+        <v>1174</v>
       </c>
       <c r="C546" t="s">
         <v>557</v>
       </c>
       <c r="D546">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E546">
-        <v>5.2857142857142856</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="F546">
-        <v>6.0714285714285712</v>
+        <v>5.2352941176470589</v>
       </c>
       <c r="G546">
-        <v>5.875</v>
+        <v>4.25</v>
       </c>
       <c r="H546">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="I546">
-        <v>4.25</v>
+        <v>4.0625</v>
       </c>
     </row>
     <row r="547" spans="1:9" x14ac:dyDescent="0.45">
@@ -18095,13 +18092,13 @@
         <v>558</v>
       </c>
       <c r="D547">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E547">
-        <v>4.2941176470588234</v>
+        <v>6.6</v>
       </c>
       <c r="F547">
-        <v>5.2352941176470589</v>
+        <v>6.6</v>
       </c>
       <c r="G547">
         <v>4.25</v>
@@ -18118,28 +18115,28 @@
         <v>12</v>
       </c>
       <c r="B548">
-        <v>1174</v>
+        <v>1423</v>
       </c>
       <c r="C548" t="s">
         <v>559</v>
       </c>
       <c r="D548">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E548">
-        <v>6.6</v>
+        <v>3.285714285714286</v>
       </c>
       <c r="F548">
-        <v>6.6</v>
+        <v>4.8571428571428568</v>
       </c>
       <c r="G548">
-        <v>4.25</v>
+        <v>5.625</v>
       </c>
       <c r="H548">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="I548">
-        <v>4.0625</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="549" spans="1:9" x14ac:dyDescent="0.45">
@@ -18153,13 +18150,13 @@
         <v>560</v>
       </c>
       <c r="D549">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E549">
-        <v>3.285714285714286</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="F549">
-        <v>4.8571428571428568</v>
+        <v>6.4</v>
       </c>
       <c r="G549">
         <v>5.625</v>
@@ -18176,28 +18173,28 @@
         <v>12</v>
       </c>
       <c r="B550">
-        <v>1423</v>
+        <v>1443</v>
       </c>
       <c r="C550" t="s">
         <v>561</v>
       </c>
       <c r="D550">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E550">
-        <v>5.5333333333333332</v>
+        <v>3.8666666666666671</v>
       </c>
       <c r="F550">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="G550">
-        <v>5.625</v>
+        <v>5</v>
       </c>
       <c r="H550">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I550">
-        <v>3.125</v>
+        <v>2.4375</v>
       </c>
     </row>
     <row r="551" spans="1:9" x14ac:dyDescent="0.45">
@@ -18211,13 +18208,13 @@
         <v>562</v>
       </c>
       <c r="D551">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E551">
-        <v>3.8666666666666671</v>
+        <v>6.5</v>
       </c>
       <c r="F551">
-        <v>5.8</v>
+        <v>6.6428571428571432</v>
       </c>
       <c r="G551">
         <v>5</v>
@@ -18234,28 +18231,28 @@
         <v>12</v>
       </c>
       <c r="B552">
-        <v>1443</v>
+        <v>1627</v>
       </c>
       <c r="C552" t="s">
         <v>563</v>
       </c>
       <c r="D552">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E552">
-        <v>6.5</v>
+        <v>3.6470588235294121</v>
       </c>
       <c r="F552">
-        <v>6.6428571428571432</v>
+        <v>4.9411764705882364</v>
       </c>
       <c r="G552">
-        <v>5</v>
+        <v>4.875</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I552">
-        <v>2.4375</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="553" spans="1:9" x14ac:dyDescent="0.45">
@@ -18269,13 +18266,13 @@
         <v>564</v>
       </c>
       <c r="D553">
-        <v>0</v>
+        <v>0.13333300000000001</v>
       </c>
       <c r="E553">
-        <v>3.6470588235294121</v>
+        <v>4.0714285714285712</v>
       </c>
       <c r="F553">
-        <v>4.9411764705882364</v>
+        <v>5.7857142857142856</v>
       </c>
       <c r="G553">
         <v>4.875</v>
@@ -18292,25 +18289,25 @@
         <v>12</v>
       </c>
       <c r="B554">
-        <v>1627</v>
+        <v>1631</v>
       </c>
       <c r="C554" t="s">
         <v>565</v>
       </c>
       <c r="D554">
-        <v>0.13333300000000001</v>
+        <v>0</v>
       </c>
       <c r="E554">
-        <v>4.0714285714285712</v>
+        <v>4.2941176470588234</v>
       </c>
       <c r="F554">
-        <v>5.7857142857142856</v>
+        <v>5.5882352941176467</v>
       </c>
       <c r="G554">
-        <v>4.875</v>
+        <v>4.8125</v>
       </c>
       <c r="H554">
-        <v>0.125</v>
+        <v>0.1875</v>
       </c>
       <c r="I554">
         <v>1.875</v>
@@ -18327,13 +18324,13 @@
         <v>566</v>
       </c>
       <c r="D555">
-        <v>0</v>
+        <v>0.16666700000000001</v>
       </c>
       <c r="E555">
-        <v>4.2941176470588234</v>
+        <v>5.4666666666666668</v>
       </c>
       <c r="F555">
-        <v>5.5882352941176467</v>
+        <v>6.4</v>
       </c>
       <c r="G555">
         <v>4.8125</v>
@@ -18350,28 +18347,28 @@
         <v>12</v>
       </c>
       <c r="B556">
-        <v>1631</v>
+        <v>1906</v>
       </c>
       <c r="C556" t="s">
         <v>567</v>
       </c>
       <c r="D556">
-        <v>0.16666700000000001</v>
+        <v>0</v>
       </c>
       <c r="E556">
-        <v>5.4666666666666668</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F556">
-        <v>6.4</v>
+        <v>5.5333333333333332</v>
       </c>
       <c r="G556">
-        <v>4.8125</v>
+        <v>5.8125</v>
       </c>
       <c r="H556">
-        <v>0.1875</v>
+        <v>0.8125</v>
       </c>
       <c r="I556">
-        <v>1.875</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="557" spans="1:9" x14ac:dyDescent="0.45">
@@ -18385,13 +18382,13 @@
         <v>568</v>
       </c>
       <c r="D557">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E557">
-        <v>4.4000000000000004</v>
+        <v>6.4</v>
       </c>
       <c r="F557">
-        <v>5.5333333333333332</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="G557">
         <v>5.8125</v>
@@ -18400,35 +18397,6 @@
         <v>0.8125</v>
       </c>
       <c r="I557">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A558" t="s">
-        <v>12</v>
-      </c>
-      <c r="B558">
-        <v>1906</v>
-      </c>
-      <c r="C558" t="s">
-        <v>569</v>
-      </c>
-      <c r="D558">
-        <v>0.15</v>
-      </c>
-      <c r="E558">
-        <v>6.4</v>
-      </c>
-      <c r="F558">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G558">
-        <v>5.8125</v>
-      </c>
-      <c r="H558">
-        <v>0.8125</v>
-      </c>
-      <c r="I558">
         <v>2.75</v>
       </c>
     </row>

--- a/results/selected_stimuli.xlsx
+++ b/results/selected_stimuli.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\amandalin047\july_ratings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8D674-597B-48B1-9E82-69DE508117C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635B193C-6F69-46C4-A499-FEBE9BD8C7E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8528" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="2" r:id="rId1"/>
-    <sheet name="selected" sheetId="1" r:id="rId2"/>
+    <sheet name="selected_rep_frames" sheetId="1" r:id="rId2"/>
+    <sheet name="selected_nonrep_frames" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="628">
   <si>
     <t>Rated Condition</t>
   </si>
@@ -1730,9 +1731,6 @@
     <t>他是個氣度開闊崇尚自由的浪漫才子，性情很豪放。</t>
   </si>
   <si>
-    <t>CURRENT THRESHOLD</t>
-  </si>
-  <si>
     <t>Plaus &gt;= 3.7</t>
   </si>
   <si>
@@ -1745,16 +1743,169 @@
     <t>*Those sentences whose ending words are unexpected (cloze=0) but got an expectancy value of &gt;= 5.75 are dropped</t>
   </si>
   <si>
-    <t>Emo_SC frames: 75</t>
-  </si>
-  <si>
-    <t>Emo_WC frames: 65</t>
-  </si>
-  <si>
-    <t>Neu_SC frames: 70</t>
-  </si>
-  <si>
-    <t>Neu_WC frames: 69</t>
+    <t>沒有去過夜店的我們，決定這禮拜五下班要直接走去嘗試。</t>
+  </si>
+  <si>
+    <t>為了確保車輛安全，各項零組件組裝的品質需要把關。</t>
+  </si>
+  <si>
+    <t>講台上的演講者需要懂得如何應對台下觀眾的反應。</t>
+  </si>
+  <si>
+    <t>元首出席國家慶典，總督府前站了一排威武的憲兵。</t>
+  </si>
+  <si>
+    <t>女星分手後和小鮮肉形影不離感情融洽，媒體說是無縫接軌。</t>
+  </si>
+  <si>
+    <t>身為警察的小光整理好制服後，站起來要去上班。</t>
+  </si>
+  <si>
+    <t>表妹的授袍典禮結束後，我隨手拿了一些點心。</t>
+  </si>
+  <si>
+    <t>我在考慮這幾間學校，你幫我看一下它們幾個的評價。</t>
+  </si>
+  <si>
+    <t>剛出社會工作的兒子經濟尚未穩定，因此父母有幫忙支援。</t>
+  </si>
+  <si>
+    <t>老闆畢業於休閒管理學系，公司的規定也就比較不一樣。</t>
+  </si>
+  <si>
+    <t>經過了大學四年，小瑜覺得其中最特別的就是社團。</t>
+  </si>
+  <si>
+    <t>小明從小個性內向，在課堂上表現也很普通。</t>
+  </si>
+  <si>
+    <t>柏瑜希望在畢業前存到第一桶金，因此抽空打工。</t>
+  </si>
+  <si>
+    <t>媽媽總是提醒我記得開檯燈，避免讀書時傷害眼睛。</t>
+  </si>
+  <si>
+    <t>我每天搭車通勤的路上，都有不少人低頭在看手機。</t>
+  </si>
+  <si>
+    <t>女友喜歡蒐集各式各樣的耳環，因此我送給他的禮物就是耳環。</t>
+  </si>
+  <si>
+    <t>我上次出國行李安檢卡關，還好後來順利趕上了飛機。</t>
+  </si>
+  <si>
+    <t>學校每年辦藝術及攝影展，因此校門口到處都是學生們的作品。</t>
+  </si>
+  <si>
+    <t>待會開會中途老闆會通一下電話，所以開會會先暫停。</t>
+  </si>
+  <si>
+    <t>女兒很喜歡音樂，我想要為她找個鋼琴老師讓她去學習。</t>
+  </si>
+  <si>
+    <t>在山谷中大聲喊叫的話，可以在數秒後聽到自己聲音的回音。</t>
+  </si>
+  <si>
+    <t>他買了浪漫浮誇的鮮花和戒指給女友，想要跟她求婚。</t>
+  </si>
+  <si>
+    <t>他自認為擁有一副好歌喉，洗澡時常在浴室裡大聲唱歌。</t>
+  </si>
+  <si>
+    <t>最近諸事纏身，導致阿美總感覺情緒難以控制。</t>
+  </si>
+  <si>
+    <t>該嫌犯搭捷運偷拍裙底風光，已成人們眼中的眼中釘。</t>
+  </si>
+  <si>
+    <t>這兩家店是死對頭，為搶生意兩人在店前吵架。</t>
+  </si>
+  <si>
+    <t>同學冤枉我還不道歉，甚至挑釁地要我說出自己的秘密。</t>
+  </si>
+  <si>
+    <t>這間公司獲利持續在攀升，每位員工都充滿希望。</t>
+  </si>
+  <si>
+    <t>謝謝所有愛我和幫過我的人，我的生活因此越來越豐富。</t>
+  </si>
+  <si>
+    <t>深愛初戀卻沒有結果，成為他感情生涯的遺憾。</t>
+  </si>
+  <si>
+    <t>下週要慶祝熱鬧騰騰的節慶，真期待我終於可以休息。</t>
+  </si>
+  <si>
+    <t>他得每天賣命兼三份工作，拚死了老命才不致餓死。</t>
+  </si>
+  <si>
+    <t>重考的他看到自己在大學榜單上，終於可以放心。</t>
+  </si>
+  <si>
+    <t>被告在法庭上全程低頭不語，沒人能了解他背後的動機。</t>
+  </si>
+  <si>
+    <t>深夜下班後獨自走在暗巷裡，越走心裡越害怕。</t>
+  </si>
+  <si>
+    <t>每次跟老王講話都被置之不理，讓我很不爽。</t>
+  </si>
+  <si>
+    <t>母親昨晚半夜於醫院病逝，他今天上班非常沮喪。</t>
+  </si>
+  <si>
+    <t>基金會利誘信徒投資吸金，只要不服從就會被迫退出。</t>
+  </si>
+  <si>
+    <t>男友長期垃圾亂堆、髒衣服發臭不想洗，令她感到很噁心。</t>
+  </si>
+  <si>
+    <t>少年時我成天酗酒吸毒，當時我覺得我的生命好無趣。</t>
+  </si>
+  <si>
+    <t>沒想到只花五十元買樂透卻中十萬，我真的太幸運。</t>
+  </si>
+  <si>
+    <t>赤壁一戰曹軍死傷無數，不過數日便全軍覆沒。</t>
+  </si>
+  <si>
+    <t>教授不斷點頭稱讚，顯然對於研究結果很滿意。</t>
+  </si>
+  <si>
+    <t>他做事很沒責任感，每次失敗都會隨便替自己找藉口。</t>
+  </si>
+  <si>
+    <t>阿雅沒能見到母親最後一面，只能留下遺憾。</t>
+  </si>
+  <si>
+    <t>小明長期做壞事，最終一定會有所報應。</t>
+  </si>
+  <si>
+    <t>李老闆讓我看見自己的希望，他是改變我生命的貴人。</t>
+  </si>
+  <si>
+    <t>他每天都不洗臉又隨便抓個衣服就出門，整個人非常邋遢。</t>
+  </si>
+  <si>
+    <t>對於這份得來不易的好緣份，他們越來越珍惜。</t>
+  </si>
+  <si>
+    <t>小凱常因為緊張而面試表現不好，因此求職路上到處被公司拒絕。</t>
+  </si>
+  <si>
+    <t>Emo_SC frames (rep): 75/ (non-rep): 10</t>
+  </si>
+  <si>
+    <t>Emo_WC frames (rep): 65/ (non-rep): 17</t>
+  </si>
+  <si>
+    <t>Neu_SC frames (rep): 70/ (non-rep): 11</t>
+  </si>
+  <si>
+    <t>Neu_WC frames (rep): 69/ (non-rep): 12</t>
+  </si>
+  <si>
+    <t>CURRENT CRETERIA</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D77AF55-5047-4B84-B8D7-CCD0BF4BB510}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2188,47 +2339,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>569</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>575</v>
+        <v>624</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>576</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>577</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -2241,8 +2392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I557"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A378" workbookViewId="0">
-      <selection activeCell="A400" sqref="A400:XFD400"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -18403,4 +18554,1548 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D53C5B0-EA6C-4753-B7BD-73CFF474907B}">
+  <dimension ref="A1:I51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>622</v>
+      </c>
+      <c r="D2">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E2">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F2">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>3.214285714285714</v>
+      </c>
+      <c r="H2">
+        <f>ABS(G2-5)</f>
+        <v>1.785714285714286</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E3">
+        <v>5.2</v>
+      </c>
+      <c r="F3">
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="G3">
+        <v>6.7857142857142856</v>
+      </c>
+      <c r="H3">
+        <f>ABS(G3-5)</f>
+        <v>1.7857142857142856</v>
+      </c>
+      <c r="I3">
+        <v>3.285714285714286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>1024</v>
+      </c>
+      <c r="C4" t="s">
+        <v>620</v>
+      </c>
+      <c r="D4">
+        <v>0.73333300000000001</v>
+      </c>
+      <c r="E4">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F4">
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="G4">
+        <v>2.8125</v>
+      </c>
+      <c r="H4">
+        <f>ABS(G4-5)</f>
+        <v>2.1875</v>
+      </c>
+      <c r="I4">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1080</v>
+      </c>
+      <c r="C5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D5">
+        <v>0.75</v>
+      </c>
+      <c r="E5">
+        <v>6.2666666666666666</v>
+      </c>
+      <c r="F5">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G5">
+        <v>6.9375</v>
+      </c>
+      <c r="H5">
+        <f>ABS(G5-5)</f>
+        <v>1.9375</v>
+      </c>
+      <c r="I5">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D6">
+        <v>0.83333299999999999</v>
+      </c>
+      <c r="E6">
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="F6">
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="G6">
+        <v>2.8125</v>
+      </c>
+      <c r="H6">
+        <f>ABS(G6-5)</f>
+        <v>2.1875</v>
+      </c>
+      <c r="I6">
+        <v>3.5625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1196</v>
+      </c>
+      <c r="C7" t="s">
+        <v>617</v>
+      </c>
+      <c r="D7">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="E7">
+        <v>5.9411764705882364</v>
+      </c>
+      <c r="F7">
+        <v>6.1764705882352944</v>
+      </c>
+      <c r="G7">
+        <v>2.0625</v>
+      </c>
+      <c r="H7">
+        <f>ABS(G7-5)</f>
+        <v>2.9375</v>
+      </c>
+      <c r="I7">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>1200</v>
+      </c>
+      <c r="C8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D8">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="E8">
+        <v>6.3571428571428568</v>
+      </c>
+      <c r="F8">
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="G8">
+        <v>2.875</v>
+      </c>
+      <c r="H8">
+        <f>ABS(G8-5)</f>
+        <v>2.125</v>
+      </c>
+      <c r="I8">
+        <v>3.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1268</v>
+      </c>
+      <c r="C9" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>6.7058823529411766</v>
+      </c>
+      <c r="F9">
+        <v>6.7058823529411766</v>
+      </c>
+      <c r="G9">
+        <v>7.7857142857142856</v>
+      </c>
+      <c r="H9">
+        <f>ABS(G9-5)</f>
+        <v>2.7857142857142856</v>
+      </c>
+      <c r="I9">
+        <v>3.214285714285714</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1336</v>
+      </c>
+      <c r="C10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+      <c r="E10">
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="F10">
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="G10">
+        <v>2.8125</v>
+      </c>
+      <c r="H10">
+        <f>ABS(G10-5)</f>
+        <v>2.1875</v>
+      </c>
+      <c r="I10">
+        <v>3.5625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>1368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>613</v>
+      </c>
+      <c r="D11">
+        <v>0.9</v>
+      </c>
+      <c r="E11">
+        <v>6.8235294117647056</v>
+      </c>
+      <c r="F11">
+        <v>6.7647058823529411</v>
+      </c>
+      <c r="G11">
+        <v>7.9285714285714288</v>
+      </c>
+      <c r="H11">
+        <f>ABS(G11-5)</f>
+        <v>2.9285714285714288</v>
+      </c>
+      <c r="I11">
+        <v>5.9285714285714288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>612</v>
+      </c>
+      <c r="D12">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E12">
+        <v>4.0666666666666664</v>
+      </c>
+      <c r="F12">
+        <v>4.9333333333333336</v>
+      </c>
+      <c r="G12">
+        <v>2.785714285714286</v>
+      </c>
+      <c r="H12">
+        <f>ABS(G12-5)</f>
+        <v>2.214285714285714</v>
+      </c>
+      <c r="I12">
+        <v>3.8571428571428572</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>611</v>
+      </c>
+      <c r="D13">
+        <v>0.2</v>
+      </c>
+      <c r="E13">
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="F13">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G13">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="H13">
+        <f>ABS(G13-5)</f>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="I13">
+        <v>4.5714285714285712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>610</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="F14">
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="G14">
+        <v>2.3571428571428572</v>
+      </c>
+      <c r="H14">
+        <f>ABS(G14-5)</f>
+        <v>2.6428571428571428</v>
+      </c>
+      <c r="I14">
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>138</v>
+      </c>
+      <c r="C15" t="s">
+        <v>609</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>5.4</v>
+      </c>
+      <c r="F15">
+        <v>6.1333333333333337</v>
+      </c>
+      <c r="G15">
+        <v>2.285714285714286</v>
+      </c>
+      <c r="H15">
+        <f>ABS(G15-5)</f>
+        <v>2.714285714285714</v>
+      </c>
+      <c r="I15">
+        <v>5.1428571428571432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>608</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="E16">
+        <v>6.1333333333333337</v>
+      </c>
+      <c r="F16">
+        <v>6.2666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>2.6875</v>
+      </c>
+      <c r="H16">
+        <f>ABS(G16-5)</f>
+        <v>2.3125</v>
+      </c>
+      <c r="I16">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>607</v>
+      </c>
+      <c r="D17">
+        <v>0.2</v>
+      </c>
+      <c r="E17">
+        <v>5.9411764705882364</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>3.285714285714286</v>
+      </c>
+      <c r="H17">
+        <f>ABS(G17-5)</f>
+        <v>1.714285714285714</v>
+      </c>
+      <c r="I17">
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>250</v>
+      </c>
+      <c r="C18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18">
+        <v>0.222222</v>
+      </c>
+      <c r="E18">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="F18">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>3.3125</v>
+      </c>
+      <c r="H18">
+        <f>ABS(G18-5)</f>
+        <v>1.6875</v>
+      </c>
+      <c r="I18">
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>438</v>
+      </c>
+      <c r="C19" t="s">
+        <v>605</v>
+      </c>
+      <c r="D19">
+        <v>0.2</v>
+      </c>
+      <c r="E19">
+        <v>6.3529411764705879</v>
+      </c>
+      <c r="F19">
+        <v>6.6470588235294121</v>
+      </c>
+      <c r="G19">
+        <v>6.9285714285714288</v>
+      </c>
+      <c r="H19">
+        <f>ABS(G19-5)</f>
+        <v>1.9285714285714288</v>
+      </c>
+      <c r="I19">
+        <v>3.5714285714285721</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>550</v>
+      </c>
+      <c r="C20" t="s">
+        <v>604</v>
+      </c>
+      <c r="D20">
+        <v>0.2</v>
+      </c>
+      <c r="E20">
+        <v>6.117647058823529</v>
+      </c>
+      <c r="F20">
+        <v>6.4705882352941178</v>
+      </c>
+      <c r="G20">
+        <v>3.3571428571428572</v>
+      </c>
+      <c r="H20">
+        <f>ABS(G20-5)</f>
+        <v>1.6428571428571428</v>
+      </c>
+      <c r="I20">
+        <v>4.2857142857142856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>558</v>
+      </c>
+      <c r="C21" t="s">
+        <v>603</v>
+      </c>
+      <c r="D21">
+        <v>0.1875</v>
+      </c>
+      <c r="E21">
+        <v>3.9411764705882359</v>
+      </c>
+      <c r="F21">
+        <v>4.4117647058823533</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <f>ABS(G21-5)</f>
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>4.2142857142857144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>1010</v>
+      </c>
+      <c r="C22" t="s">
+        <v>602</v>
+      </c>
+      <c r="D22">
+        <v>0.13333300000000001</v>
+      </c>
+      <c r="E22">
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="F22">
+        <v>6.6</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <f>ABS(G22-5)</f>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>3.8125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>1026</v>
+      </c>
+      <c r="C23" t="s">
+        <v>601</v>
+      </c>
+      <c r="D23">
+        <v>0.13333300000000001</v>
+      </c>
+      <c r="E23">
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="F23">
+        <v>6.2857142857142856</v>
+      </c>
+      <c r="G23">
+        <v>6.8125</v>
+      </c>
+      <c r="H23">
+        <f>ABS(G23-5)</f>
+        <v>1.8125</v>
+      </c>
+      <c r="I23">
+        <v>4.5625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>1050</v>
+      </c>
+      <c r="C24" t="s">
+        <v>600</v>
+      </c>
+      <c r="D24">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="E24">
+        <v>4.882352941176471</v>
+      </c>
+      <c r="F24">
+        <v>5.9411764705882364</v>
+      </c>
+      <c r="G24">
+        <v>7.125</v>
+      </c>
+      <c r="H24">
+        <f>ABS(G24-5)</f>
+        <v>2.125</v>
+      </c>
+      <c r="I24">
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>1078</v>
+      </c>
+      <c r="C25" t="s">
+        <v>599</v>
+      </c>
+      <c r="D25">
+        <v>0.2</v>
+      </c>
+      <c r="E25">
+        <v>3.4285714285714279</v>
+      </c>
+      <c r="F25">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="G25">
+        <v>2.125</v>
+      </c>
+      <c r="H25">
+        <f>ABS(G25-5)</f>
+        <v>2.875</v>
+      </c>
+      <c r="I25">
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26">
+        <v>1098</v>
+      </c>
+      <c r="C26" t="s">
+        <v>598</v>
+      </c>
+      <c r="D26">
+        <v>0.2</v>
+      </c>
+      <c r="E26">
+        <v>6.6</v>
+      </c>
+      <c r="F26">
+        <v>6.7333333333333334</v>
+      </c>
+      <c r="G26">
+        <v>2.5625</v>
+      </c>
+      <c r="H26">
+        <f>ABS(G26-5)</f>
+        <v>2.4375</v>
+      </c>
+      <c r="I26">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>1158</v>
+      </c>
+      <c r="C27" t="s">
+        <v>597</v>
+      </c>
+      <c r="D27">
+        <v>0.2</v>
+      </c>
+      <c r="E27">
+        <v>4.1764705882352944</v>
+      </c>
+      <c r="F27">
+        <v>5.6470588235294121</v>
+      </c>
+      <c r="G27">
+        <v>2.0625</v>
+      </c>
+      <c r="H27">
+        <f>ABS(G27-5)</f>
+        <v>2.9375</v>
+      </c>
+      <c r="I27">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>1970</v>
+      </c>
+      <c r="C28" t="s">
+        <v>596</v>
+      </c>
+      <c r="D28">
+        <v>0.2</v>
+      </c>
+      <c r="E28">
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="F28">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>2.875</v>
+      </c>
+      <c r="H28">
+        <f>ABS(G28-5)</f>
+        <v>2.125</v>
+      </c>
+      <c r="I28">
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>595</v>
+      </c>
+      <c r="D29">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="E29">
+        <v>5.9411764705882364</v>
+      </c>
+      <c r="F29">
+        <v>6.3529411764705879</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f>ABS(G29-5)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2.9285714285714279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>594</v>
+      </c>
+      <c r="D30">
+        <v>0.8</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="F30">
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="G30">
+        <v>5.7857142857142856</v>
+      </c>
+      <c r="H30">
+        <f>ABS(G30-5)</f>
+        <v>0.78571428571428559</v>
+      </c>
+      <c r="I30">
+        <v>3.214285714285714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>593</v>
+      </c>
+      <c r="D31">
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E31">
+        <v>6.0588235294117636</v>
+      </c>
+      <c r="F31">
+        <v>6.117647058823529</v>
+      </c>
+      <c r="G31">
+        <v>5.0714285714285712</v>
+      </c>
+      <c r="H31">
+        <f>ABS(G31-5)</f>
+        <v>7.1428571428571175E-2</v>
+      </c>
+      <c r="I31">
+        <v>2.0714285714285721</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>105</v>
+      </c>
+      <c r="C32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D32">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="E32">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F32">
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="G32">
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="H32">
+        <f>ABS(G32-5)</f>
+        <v>0.35714285714285676</v>
+      </c>
+      <c r="I32">
+        <v>2.285714285714286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1093</v>
+      </c>
+      <c r="C33" t="s">
+        <v>591</v>
+      </c>
+      <c r="D33">
+        <v>0.8</v>
+      </c>
+      <c r="E33">
+        <v>5.5294117647058822</v>
+      </c>
+      <c r="F33">
+        <v>5.5294117647058822</v>
+      </c>
+      <c r="G33">
+        <v>4.8125</v>
+      </c>
+      <c r="H33">
+        <f>ABS(G33-5)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="I33">
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>590</v>
+      </c>
+      <c r="D34">
+        <v>0.8125</v>
+      </c>
+      <c r="E34">
+        <v>6</v>
+      </c>
+      <c r="F34">
+        <v>6.2</v>
+      </c>
+      <c r="G34">
+        <v>5.875</v>
+      </c>
+      <c r="H34">
+        <f>ABS(G34-5)</f>
+        <v>0.875</v>
+      </c>
+      <c r="I34">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>1117</v>
+      </c>
+      <c r="C35" t="s">
+        <v>589</v>
+      </c>
+      <c r="D35">
+        <v>0.86666699999999997</v>
+      </c>
+      <c r="E35">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="F35">
+        <v>6.6428571428571432</v>
+      </c>
+      <c r="G35">
+        <v>5.4375</v>
+      </c>
+      <c r="H35">
+        <f>ABS(G35-5)</f>
+        <v>0.4375</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>1173</v>
+      </c>
+      <c r="C36" t="s">
+        <v>588</v>
+      </c>
+      <c r="D36">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="E36">
+        <v>6.5882352941176467</v>
+      </c>
+      <c r="F36">
+        <v>6.7647058823529411</v>
+      </c>
+      <c r="G36">
+        <v>5.5714285714285712</v>
+      </c>
+      <c r="H36">
+        <f>ABS(G36-5)</f>
+        <v>0.57142857142857117</v>
+      </c>
+      <c r="I36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>1301</v>
+      </c>
+      <c r="C37" t="s">
+        <v>587</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>6.7058823529411766</v>
+      </c>
+      <c r="F37">
+        <v>6.7647058823529411</v>
+      </c>
+      <c r="G37">
+        <v>4.8571428571428568</v>
+      </c>
+      <c r="H37">
+        <f>ABS(G37-5)</f>
+        <v>0.14285714285714324</v>
+      </c>
+      <c r="I37">
+        <v>1.642857142857143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38">
+        <v>1345</v>
+      </c>
+      <c r="C38" t="s">
+        <v>586</v>
+      </c>
+      <c r="D38">
+        <v>0.8</v>
+      </c>
+      <c r="E38">
+        <v>6.7333333333333334</v>
+      </c>
+      <c r="F38">
+        <v>6.7333333333333334</v>
+      </c>
+      <c r="G38">
+        <v>4.8125</v>
+      </c>
+      <c r="H38">
+        <f>ABS(G38-5)</f>
+        <v>0.1875</v>
+      </c>
+      <c r="I38">
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39">
+        <v>1385</v>
+      </c>
+      <c r="C39" t="s">
+        <v>585</v>
+      </c>
+      <c r="D39">
+        <v>0.8</v>
+      </c>
+      <c r="E39">
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="F39">
+        <v>6.5333333333333332</v>
+      </c>
+      <c r="G39">
+        <v>5.5625</v>
+      </c>
+      <c r="H39">
+        <f>ABS(G39-5)</f>
+        <v>0.5625</v>
+      </c>
+      <c r="I39">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>584</v>
+      </c>
+      <c r="D40">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E40">
+        <v>4.6470588235294121</v>
+      </c>
+      <c r="F40">
+        <v>5.1764705882352944</v>
+      </c>
+      <c r="G40">
+        <v>4.6428571428571432</v>
+      </c>
+      <c r="H40">
+        <f>ABS(G40-5)</f>
+        <v>0.35714285714285676</v>
+      </c>
+      <c r="I40">
+        <v>1.642857142857143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41">
+        <v>51</v>
+      </c>
+      <c r="C41" t="s">
+        <v>583</v>
+      </c>
+      <c r="D41">
+        <v>0.1333333333333333</v>
+      </c>
+      <c r="E41">
+        <v>4.4666666666666668</v>
+      </c>
+      <c r="F41">
+        <v>5.7333333333333334</v>
+      </c>
+      <c r="G41">
+        <v>5.8571428571428568</v>
+      </c>
+      <c r="H41">
+        <f>ABS(G41-5)</f>
+        <v>0.85714285714285676</v>
+      </c>
+      <c r="I41">
+        <v>2.5714285714285721</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42">
+        <v>91</v>
+      </c>
+      <c r="C42" t="s">
+        <v>582</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>4.4666666666666668</v>
+      </c>
+      <c r="F42">
+        <v>5.1333333333333337</v>
+      </c>
+      <c r="G42">
+        <v>4.9285714285714288</v>
+      </c>
+      <c r="H42">
+        <f>ABS(G42-5)</f>
+        <v>7.1428571428571175E-2</v>
+      </c>
+      <c r="I42">
+        <v>1.357142857142857</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43">
+        <v>103</v>
+      </c>
+      <c r="C43" t="s">
+        <v>581</v>
+      </c>
+      <c r="D43">
+        <v>0.2</v>
+      </c>
+      <c r="E43">
+        <v>5.0588235294117636</v>
+      </c>
+      <c r="F43">
+        <v>5.5294117647058822</v>
+      </c>
+      <c r="G43">
+        <v>5.0714285714285712</v>
+      </c>
+      <c r="H43">
+        <f>ABS(G43-5)</f>
+        <v>7.1428571428571175E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44">
+        <v>167</v>
+      </c>
+      <c r="C44" t="s">
+        <v>580</v>
+      </c>
+      <c r="D44">
+        <v>0.2</v>
+      </c>
+      <c r="E44">
+        <v>5.8666666666666663</v>
+      </c>
+      <c r="F44">
+        <v>6.0666666666666664</v>
+      </c>
+      <c r="G44">
+        <v>5.1428571428571432</v>
+      </c>
+      <c r="H44">
+        <f>ABS(G44-5)</f>
+        <v>0.14285714285714324</v>
+      </c>
+      <c r="I44">
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>171</v>
+      </c>
+      <c r="C45" t="s">
+        <v>579</v>
+      </c>
+      <c r="D45">
+        <v>0.2</v>
+      </c>
+      <c r="E45">
+        <v>3.3529411764705879</v>
+      </c>
+      <c r="F45">
+        <v>5.2352941176470589</v>
+      </c>
+      <c r="G45">
+        <v>5.2142857142857144</v>
+      </c>
+      <c r="H45">
+        <f>ABS(G45-5)</f>
+        <v>0.21428571428571441</v>
+      </c>
+      <c r="I45">
+        <v>1.857142857142857</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46">
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>578</v>
+      </c>
+      <c r="D46">
+        <v>0.26666666666666672</v>
+      </c>
+      <c r="E46">
+        <v>6.0588235294117636</v>
+      </c>
+      <c r="F46">
+        <v>6.3529411764705879</v>
+      </c>
+      <c r="G46">
+        <v>5.2142857142857144</v>
+      </c>
+      <c r="H46">
+        <f>ABS(G46-5)</f>
+        <v>0.21428571428571441</v>
+      </c>
+      <c r="I46">
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47">
+        <v>542</v>
+      </c>
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47">
+        <v>0.2</v>
+      </c>
+      <c r="E47">
+        <v>4.5882352941176467</v>
+      </c>
+      <c r="F47">
+        <v>5.6470588235294121</v>
+      </c>
+      <c r="G47">
+        <v>4.7142857142857144</v>
+      </c>
+      <c r="H47">
+        <f>ABS(G47-5)</f>
+        <v>0.28571428571428559</v>
+      </c>
+      <c r="I47">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48">
+        <v>543</v>
+      </c>
+      <c r="C48" t="s">
+        <v>576</v>
+      </c>
+      <c r="D48">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E48">
+        <v>6.4705882352941178</v>
+      </c>
+      <c r="F48">
+        <v>6.5882352941176467</v>
+      </c>
+      <c r="G48">
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="H48">
+        <f>ABS(G48-5)</f>
+        <v>0.42857142857142883</v>
+      </c>
+      <c r="I48">
+        <v>2.285714285714286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>575</v>
+      </c>
+      <c r="C49" t="s">
+        <v>575</v>
+      </c>
+      <c r="D49">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E49">
+        <v>6.5294117647058822</v>
+      </c>
+      <c r="F49">
+        <v>6.6470588235294121</v>
+      </c>
+      <c r="G49">
+        <v>5.4285714285714288</v>
+      </c>
+      <c r="H49">
+        <f>ABS(G49-5)</f>
+        <v>0.42857142857142883</v>
+      </c>
+      <c r="I49">
+        <v>2.3571428571428572</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>1027</v>
+      </c>
+      <c r="C50" t="s">
+        <v>574</v>
+      </c>
+      <c r="D50">
+        <v>0.13333300000000001</v>
+      </c>
+      <c r="E50">
+        <v>6.1428571428571432</v>
+      </c>
+      <c r="F50">
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="G50">
+        <v>5.125</v>
+      </c>
+      <c r="H50">
+        <f>ABS(G50-5)</f>
+        <v>0.125</v>
+      </c>
+      <c r="I50">
+        <v>1.8125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51">
+        <v>1082</v>
+      </c>
+      <c r="C51" t="s">
+        <v>573</v>
+      </c>
+      <c r="D51">
+        <v>0.2</v>
+      </c>
+      <c r="E51">
+        <v>5.3571428571428568</v>
+      </c>
+      <c r="F51">
+        <v>6.4285714285714288</v>
+      </c>
+      <c r="G51">
+        <v>5.25</v>
+      </c>
+      <c r="H51">
+        <f>ABS(G51-5)</f>
+        <v>0.25</v>
+      </c>
+      <c r="I51">
+        <v>3.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>